--- a/main code/data/102.xlsx
+++ b/main code/data/102.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:B494"/>
+  <dimension ref="A1:B301"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -448,5908 +448,3600 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>대구로 집결한 전국 학교 비정규직 노동자들…"임금 교섭 타결 촉구"</t>
+          <t>[영상] 팝콘에서 나는 '이상한 냄새'…뜯어보니 밀수 담배 5만 갑</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021.12.28 15:42</t>
+          <t>2021.12.29 17:29</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>국가기록원, 독립운동가 이육사의 기록 복원·공개</t>
+          <t>전남 지역내 총생산·개인소득 증가…비제조업 '호황'</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021.12.28 15:42</t>
+          <t>2021.12.29 17:29</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>[제주 24시] 한라산 중산간에 출현한 야생 들개 '골머리'</t>
+          <t>조선대 정시모집 1358명 선발···광역화 모집 실시</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021.12.28 15:42</t>
+          <t>2021.12.29 17:29</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>온몸에 멍든 채 사망한 재소자…법무부 “폭행 가능성, 수사 착수”</t>
+          <t>여수 출신 유명 연기자, 식품기준 어기며 김치 유통하다 덜미</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021.12.28 15:42</t>
+          <t>2021.12.29 17:29</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>“오미크론 밀접접촉자 격리기간 14→ 10일로 단축… 미국처럼 5일은 불가”</t>
+          <t>[인사] 신한은행</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021.12.28 15:41</t>
+          <t>2021.12.29 17:29</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>"이통사, 10년간 LTE로 18조 초과이익…반값통신비 시행돼야"(종합)</t>
+          <t>2021년 대전충남 10대 환경뉴스 1위는 '보문산 개발'</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021.12.28 15:41</t>
+          <t>2021.12.29 17:29</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>닷새간 학생 690명 코로나19 확진…전국 학교 21.1% 방학</t>
+          <t>여수시, 아프간 특별기여자·가족에 생필품 지원</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021.12.28 15:41</t>
+          <t>2021.12.29 17:28</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>쓰러진 사람 구호 없이 돈만 빼간 40대 징역 1년</t>
+          <t>대구교육청, 온라인 콘텐츠 활용 교과서 선도학교 선정</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>2021.12.28 15:41</t>
+          <t>2021.12.29 17:28</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>대한민국 인재상 시상식 축사하는 유은혜 부총리</t>
+          <t>이준석 대표, 성상납 의혹 제기 강용석·김세의 고소</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>2021.12.28 15:41</t>
+          <t>2021.12.29 17:28</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>[게시판] SPC그룹, 11년째 '헌혈 송년회' 개최</t>
+          <t>CU, ‘GET커피’ 뚜껑 종이로 바꾼다…연 100t 플라스틱 저감 기대</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>2021.12.28 15:41</t>
+          <t>2021.12.29 17:28</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>"동선 입력하면 확진자 겹쳤는지 알려준다" 질병청 앱 시범 운영</t>
+          <t>[솔선守法]CSO 규제 강화에 대한 제언...지출보고서 공개 범위·방법 등 구체 내용 추가논의 필요</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>2021.12.28 15:41</t>
+          <t>2021.12.29 17:28</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>코오롱티슈진, 미국서 '인보사' 임상 3상 환자 투약 재개</t>
+          <t>정선군 내년 중점 추진 업무 점검</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>2021.12.28 15:41</t>
+          <t>2021.12.29 17:27</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>대한민국 인재상 시상식 축사하는 유은혜 부총리</t>
+          <t>원주 농산물 도매시장 연말연시 휴장</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 17:27</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>영천시, 내년부터 혼인신고 부부에 결혼장려금 300만원 지원</t>
+          <t>춘천시, 후평산업단지에 바이오 융복합 산업화 지원센터 추진</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 17:27</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>극동대 뷰티헬스솔루션센터 개소…음성 관련산업 도약 기대</t>
+          <t>디자인인포협동조합, 한남대 가족회사 협약</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 17:27</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>'2021 대한민국 인재상' 김제덕에 표창 수여하는 유은혜 부총리</t>
+          <t>근무지 화장실에 몰카 설치한 청주 경찰관 파면 "씻을 수 없는 실망감 안겨"</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 17:27</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>김동연, '아동복지와 돌봄의 현안과 대책' 토론회 축사</t>
+          <t>고의 사고로 보험금 5억여원 챙긴 20대 징역 2년형</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 17:27</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>정부 "코로나19 유행 감소세로 전환"</t>
+          <t>[Law &amp; Scene] 앱 통한 성매매 중계·방조는 엄연한 불법</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 17:27</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>[MBN 프레스룸] 12월 28일 오프닝</t>
+          <t>김종갑 전 한전 사장, 전남 명예 도민</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>김영록 전남지사 새해 '신해양·친환경수도 전남' 비전 제시</t>
+          <t>경기도의회 민주당 "내년에도 오직 도민만 바라보고 가겠다"</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>2021.12.28 15:40</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>군산의료원 규탄 행진</t>
+          <t>괴산사랑상품권 올해 230억원어치 팔려…역대 최대치</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>산청군, 올 한해 각종 평가서 우수 성과</t>
+          <t>남해 야산에 불…인명피해 없고 잔불 정리 중</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>'빛만 늘어가는 자영업자'</t>
+          <t>제주서 오미크론 감염 2명 발생…해외·타지역 입도객</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>‘추위 속 행진’</t>
+          <t>[인사] 대전시</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>‘추위 속 행진’</t>
+          <t>소방안전 ‘확장현실’ 차량 첫 도입…“외국인 안전교육 확대”</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>[인사]완주군</t>
+          <t>광주 동부소방서, 화재 취약대상 방문 점검</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>오세훈 시장, '청년취업사관학교' 금천 캠퍼스 방문</t>
+          <t>서욱, '감염병 전담병원' 국군포천병원 현장 점검</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>“군산의료원 파업사태, 정부가 해결하라”</t>
+          <t>광주 동부소방서, 화재 취약대상 방문 점검</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:26</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>군산의료원 파업사태 해결 촉구하며 행진하는 보건의료산업노조</t>
+          <t>펜싱 금메달리스트 오상욱, 모교 대전대 명예 홍보대사 위촉</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:25</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>양구군 '착한 임대료' 운동 지속…공유지 대부료 80% 감면</t>
+          <t>법무부, 아동학대 대응 협업 유공자 18명 포상</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:25</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>“군산의료원 파업사태, 정부가 해결하라”</t>
+          <t>전남도, 지난해 GRDP 78조1천억원…2019년보다 1.5%↑</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:25</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>문경주 전 충남도기후환경국장 국민의힘 충남도당 입당</t>
+          <t>순찰차도 그대로 '쾅'…마약에 취한 광란의 도주극</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:25</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>국회 토론회 참석한 김동연 후보</t>
+          <t>당 섭취 '주범'…20대 탄산음료·50~60대 사과</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:25</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>"밥 왜 안줘" 잠자던 어머니 때려 숨지게 한 패륜 아들 구속</t>
+          <t>이준석 대표, '가세연' 출연진 명예훼손으로 고소</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:25</t>
         </is>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>경남 거창항노화힐링랜드 고객만족도 조사결과 87%가 ‘만족’</t>
+          <t>손끝 통증 일으키는 사구체종, 조기 진단·치료 중요해 [건강 올레길]</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:25</t>
         </is>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>옛 선인들의 ‘명구(名句)’로 만든 내년 달력 ‘화제’</t>
+          <t>[전문 수사관이 뛴다] "디지털 증거 중요성 갈수록 커져...포렌식 수사로 사건 규명 사명감"</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>2021.12.28 15:39</t>
+          <t>2021.12.29 17:25</t>
         </is>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>[인사] BNK경남은행</t>
+          <t>'국정농단' 최서원 "태블릿PC는 내 것, 돌려달라"‥검찰 "수사 당시에는 소유권 부인"</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:24</t>
         </is>
       </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
         <is>
-          <t>[인사] 전남 신안군</t>
+          <t>광주시, 2026년까지 문화기반시설 17곳 조성</t>
         </is>
       </c>
       <c r="B39" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:24</t>
         </is>
       </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
         <is>
-          <t>“군산의료원 파업사태, 정부가 해결하라”</t>
+          <t>檢, 대장동 '로비 수사' 재시동?…박영수·김정태 등 연달아 소환</t>
         </is>
       </c>
       <c r="B40" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:24</t>
         </is>
       </c>
     </row>
     <row r="41">
       <c r="A41" t="inlineStr">
         <is>
-          <t>[신년사] 신은호 인천시의회 의장 "새해엔 일상 회복되길"</t>
+          <t>서울행정·동부·서부 등 6곳, 법원장 후보군 추천 마쳐</t>
         </is>
       </c>
       <c r="B41" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:24</t>
         </is>
       </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
         <is>
-          <t>군산의료원 파업사태 해결 촉구하며 행진하는 보건의료산업노조</t>
+          <t>역사왜곡 논란 '설강화' 상영금지 가처분 신청 기각</t>
         </is>
       </c>
       <c r="B42" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:24</t>
         </is>
       </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
         <is>
-          <t>군산의료원 파업사태 해결 촉구하며 행진하는 보건의료산업노조</t>
+          <t>다음 주부터 방역패스 유효기간 적용…닷새 남았지만 벌써부터 시끌</t>
         </is>
       </c>
       <c r="B43" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:24</t>
         </is>
       </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
         <is>
-          <t>오세훈 시장, '청년취업사관학교' 금천 캠퍼스 방문</t>
+          <t>‘설강화’ 상영금지 가처분 신청 기각 “예정대로 방영”</t>
         </is>
       </c>
       <c r="B44" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:24</t>
         </is>
       </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
         <is>
-          <t>'장사도 폐업도 못하는 자영업자'</t>
+          <t>성인 10명 중 4명 코로나 이후 “체중 늘어“…1인당 평균 3.5kg 증가</t>
         </is>
       </c>
       <c r="B45" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:24</t>
         </is>
       </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
         <is>
-          <t>‘공공의료 공백 방치하는 전라북도 규탄한다’</t>
+          <t>대산보험대상 보험연구원 상금 2천만원 자폐단체 기부</t>
         </is>
       </c>
       <c r="B46" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:24</t>
         </is>
       </c>
     </row>
     <row r="47">
       <c r="A47" t="inlineStr">
         <is>
-          <t>성탄절 교회앞에 쓰러진 60대 "일주일간 못먹어"…끝내 사망</t>
+          <t>제주서 오미크론 감염 2명 추가…1명은 닷새간 제주여행</t>
         </is>
       </c>
       <c r="B47" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:23</t>
         </is>
       </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
         <is>
-          <t>영천시, 결혼장려금 3배 증가·300만원 지원</t>
+          <t>검찰, '대장동 의혹' 박영수 前특검 한달 만에 재소환</t>
         </is>
       </c>
       <c r="B48" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:23</t>
         </is>
       </c>
     </row>
     <row r="49">
       <c r="A49" t="inlineStr">
         <is>
-          <t>박형준 부산시장 3차 공판 비공개로 진행</t>
+          <t>언론단체 "대기업 지상파 소유규제 완화, 미디어를 대기업에 상납"</t>
         </is>
       </c>
       <c r="B49" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:23</t>
         </is>
       </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
         <is>
-          <t>오피스텔 누수 현장 점검하던 40대 ‘발 헛디뎌’ 추락</t>
+          <t>"폐지 팔아 모은 돈"…1천만원 놓고 사라진 노인</t>
         </is>
       </c>
       <c r="B50" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:23</t>
         </is>
       </c>
     </row>
     <row r="51">
       <c r="A51" t="inlineStr">
         <is>
-          <t>식약처, 모다모다 샴푸 '위해성 우려' 염모성분 퇴출키로 '강력 조치'</t>
+          <t>'거리두기' 한 차례 더 연장으로 가닥</t>
         </is>
       </c>
       <c r="B51" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:23</t>
         </is>
       </c>
     </row>
     <row r="52">
       <c r="A52" t="inlineStr">
         <is>
-          <t>[인사]경남은행 승진·전보</t>
+          <t>“눈가가 시큰”…서울광장에 등장한 하트♡ 눈길 [포착]</t>
         </is>
       </c>
       <c r="B52" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:23</t>
         </is>
       </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
         <is>
-          <t>'아동복지와 돌봄의 현안과 대책' 토론회 참석한 김동연 새로운물결 대선 후보</t>
+          <t>"미래 50년 열매 맺기 위한 '의령살리기 운동' 원년으로"</t>
         </is>
       </c>
       <c r="B53" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:23</t>
         </is>
       </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
         <is>
-          <t>‘코로나19 인력확보 촉구한다’</t>
+          <t>시큐리티 어워즈 코리아 2021</t>
         </is>
       </c>
       <c r="B54" t="inlineStr">
         <is>
-          <t>2021.12.28 15:38</t>
+          <t>2021.12.29 17:23</t>
         </is>
       </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
         <is>
-          <t>'전국최초 지역화폐 통합 운영' 음성군, 대통령상 받아</t>
+          <t>[포토] 재외동포재단·서울대·시흥시 MOU</t>
         </is>
       </c>
       <c r="B55" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:23</t>
         </is>
       </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
         <is>
-          <t>청와대 방향으로 행진하는 집회 참석자들</t>
+          <t>[인사] 한국언론진흥재단 / 서울시 / DGB금융그룹 등</t>
         </is>
       </c>
       <c r="B56" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:23</t>
         </is>
       </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
         <is>
-          <t>음성 극동대에 뷰티헬스솔루션센터 개소</t>
+          <t>[부음] 정재귀씨 별세 외</t>
         </is>
       </c>
       <c r="B57" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:23</t>
         </is>
       </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
         <is>
-          <t>끝 안보이는 터널"…장사도 폐업도 못해</t>
+          <t>청주 상당구 …후보 간 ‘신경전’ 시작?</t>
         </is>
       </c>
       <c r="B58" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:23</t>
         </is>
       </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
         <is>
-          <t>청와대 방향으로 행진하는 집회 참석자들</t>
+          <t>윤석열 "공수처, 독재시절 하던 짓…대통령되면 책임 묻겠다"(종합)</t>
         </is>
       </c>
       <c r="B59" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
         <is>
-          <t>법무부 "공주교도소 수용자 사망사건 수사...은폐 없었다"</t>
+          <t>배송 차질에 저소득층 쌀 걱정…수급 계획 주먹구구?</t>
         </is>
       </c>
       <c r="B60" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
         <is>
-          <t>[인사] 강진군</t>
+          <t>경남 219명 확진·1명 사망…어제 265명 '일일 최다'(종합2보)</t>
         </is>
       </c>
       <c r="B61" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
         <is>
-          <t>청와대 방향으로 행진하는 집회 참석자들</t>
+          <t>경남 219명 확진…목욕탕·회사·학교 집단감염 지속(종합)</t>
         </is>
       </c>
       <c r="B62" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
         <is>
-          <t>청와대 방향으로 행진하는 집회 참석자들</t>
+          <t>시큐리티 어워즈 코리아 2021</t>
         </is>
       </c>
       <c r="B63" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="64">
       <c r="A64" t="inlineStr">
         <is>
-          <t>김병욱 의원, “학급당 학생 수·지역별 실정에 맞춰야” ...관련법안 발의</t>
+          <t>'악취'나던 부산 초량 생태하천 재정비…예산 8억여원 투입</t>
         </is>
       </c>
       <c r="B64" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="65">
       <c r="A65" t="inlineStr">
         <is>
-          <t>'청년취업사관학교' 금천 캠퍼스 개관식</t>
+          <t>부안군, 지역역사 복합문화공간 '역사문화관' 개관</t>
         </is>
       </c>
       <c r="B65" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="66">
       <c r="A66" t="inlineStr">
         <is>
-          <t>여수시, 전남도 수산물 원산지표시 '최우수'…500만 원 포상</t>
+          <t>충북 시민단체 2021년 10대 시민운동 선정 발표</t>
         </is>
       </c>
       <c r="B66" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="67">
       <c r="A67" t="inlineStr">
         <is>
-          <t>비슬산 케이블카 사업 '재추진' 아니면 '포기' 기로에선 달성군</t>
+          <t>오미크론 하루새 109명, 우세종 순식간…'거리두기 연장' 힘실려</t>
         </is>
       </c>
       <c r="B67" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="68">
       <c r="A68" t="inlineStr">
         <is>
-          <t>[프레스룸 날씨]낮부터 한파 누그러져…미세먼지 농도↑</t>
+          <t>[영상] '마약 운전'에 실탄 11발 격발…긴박했던 체포 현장</t>
         </is>
       </c>
       <c r="B68" t="inlineStr">
         <is>
-          <t>2021.12.28 15:37</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="69">
       <c r="A69" t="inlineStr">
         <is>
-          <t>‘노적성해(露積成海)’…정읍시, 2022년 사자성어 선정</t>
+          <t>남해 야산서 산불…헬기 6대·50여명 투입</t>
         </is>
       </c>
       <c r="B69" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="70">
       <c r="A70" t="inlineStr">
         <is>
-          <t>'영업시간 제한 풀릴때까지 휴무합니다'</t>
+          <t>고의사고로 5억여원 보험금 타낸 동네 선후배 사기단</t>
         </is>
       </c>
       <c r="B70" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="71">
       <c r="A71" t="inlineStr">
         <is>
-          <t>[보령소식]김동일 시장, 우수 시정모니터 요원 표창 수여 등</t>
+          <t>창원시 여성 인구, 전출자가 전입자 보다 40% 이상 많다</t>
         </is>
       </c>
       <c r="B71" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="72">
       <c r="A72" t="inlineStr">
         <is>
-          <t>[부고] 최근배(부성산업 대표)씨 장인상</t>
+          <t>정선 코로나19 확진자 1명(167번) 발생.</t>
         </is>
       </c>
       <c r="B72" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="73">
       <c r="A73" t="inlineStr">
         <is>
-          <t>야놀자, 인터파크 사업부문 인수 작업 마무리</t>
+          <t>유명 탤런트 운영 김치업체, 식품위생법 위반 혐의로 검찰 송치</t>
         </is>
       </c>
       <c r="B73" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="74">
       <c r="A74" t="inlineStr">
         <is>
-          <t>대구 ‘제야의 타종’ 무관중 행사 진행…시민 접근 차단· 유튜브 생중계</t>
+          <t>택배 왜 안 오나 했더니…밤마다 ‘2300만원 어치’ 훔친 알바생</t>
         </is>
       </c>
       <c r="B74" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="75">
       <c r="A75" t="inlineStr">
         <is>
-          <t>교도소 수감 앞두고 확진…광주 63명·전남 24명</t>
+          <t>2030세대 뉴스 소비에 대한 오해와 진실</t>
         </is>
       </c>
       <c r="B75" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="76">
       <c r="A76" t="inlineStr">
         <is>
-          <t>6·25 전사 경찰관 2명 71년 만에 현충원 안장…DNA로 신원 학인</t>
+          <t>경기남부경찰청, 6세 원아 폭행·정서적 학대한 어린이집 교사 구속</t>
         </is>
       </c>
       <c r="B76" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:22</t>
         </is>
       </c>
     </row>
     <row r="77">
       <c r="A77" t="inlineStr">
         <is>
-          <t>서울 송파구 지하 주차장서 화재…100여명 대피</t>
+          <t>[광주소식]전남대병원 김남호, 혈액투석여과연구회장 선출 등</t>
         </is>
       </c>
       <c r="B77" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:21</t>
         </is>
       </c>
     </row>
     <row r="78">
       <c r="A78" t="inlineStr">
         <is>
-          <t>함양군-키르기스스탄, 우호 교류 협약 및 계절근로자 도입 업무협약</t>
+          <t>"지역특색 살린 답례품으로 기부 활성화를"</t>
         </is>
       </c>
       <c r="B78" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:21</t>
         </is>
       </c>
     </row>
     <row r="79">
       <c r="A79" t="inlineStr">
         <is>
-          <t>광주은행, 디지털·해외사업·소비자 보호 역점 조직개편</t>
+          <t>8천억 투자유치·해외진출…서울시 창업지원 '결실'</t>
         </is>
       </c>
       <c r="B79" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:21</t>
         </is>
       </c>
     </row>
     <row r="80">
       <c r="A80" t="inlineStr">
         <is>
-          <t>삼육보건대 간호학부, '학생 포트폴리오 경진대회' 시상식</t>
+          <t>"중대재해 사고 60%, 건설업종에서 발생"</t>
         </is>
       </c>
       <c r="B80" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:21</t>
         </is>
       </c>
     </row>
     <row r="81">
       <c r="A81" t="inlineStr">
         <is>
-          <t>변시 합격자, 변협 외 법원·검찰청서 실무연수 가능해진다</t>
+          <t>충북 새해 1분기 기업경기 전망 다소 부정적</t>
         </is>
       </c>
       <c r="B81" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:21</t>
         </is>
       </c>
     </row>
     <row r="82">
       <c r="A82" t="inlineStr">
         <is>
-          <t>"미래 도시 체험하러 오세요"…미래도시 테마파크 '루카치키' 개관</t>
+          <t>12월 광주·전남 기업경기지수 비제조업 ↓ 제조업 ↑</t>
         </is>
       </c>
       <c r="B82" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:21</t>
         </is>
       </c>
     </row>
     <row r="83">
       <c r="A83" t="inlineStr">
         <is>
-          <t>경남지역 소상공인 방역지원금 지급 개시</t>
+          <t>2명 통신영장으로... 공수처, 野의원 단톡방도 통째 털었다</t>
         </is>
       </c>
       <c r="B83" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:21</t>
         </is>
       </c>
     </row>
     <row r="84">
       <c r="A84" t="inlineStr">
         <is>
-          <t>대법 새해 10일 '제1심 민사 단독관할 확대' 공청회 개최</t>
+          <t>'미군기지 반환' 부산시민공원, 토양오염 논란</t>
         </is>
       </c>
       <c r="B84" t="inlineStr">
         <is>
-          <t>2021.12.28 15:36</t>
+          <t>2021.12.29 17:21</t>
         </is>
       </c>
     </row>
     <row r="85">
       <c r="A85" t="inlineStr">
         <is>
-          <t>광주지법, 국민참여재판 우수법원 선정…코로나 속 5건 진행</t>
+          <t>[신년사] 이철우 경북도지사 “호랑이 기상으로 당당한 경북 만들겠다”</t>
         </is>
       </c>
       <c r="B85" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 17:21</t>
         </is>
       </c>
     </row>
     <row r="86">
       <c r="A86" t="inlineStr">
         <is>
-          <t>최근 닷새간 학생 하루 평균 680여 명 확진…소아청소년 2차 접종률 47% 넘어</t>
+          <t>‘레드바이오’와 결별한 CJ그룹 다시 돌아오게 만든 ‘마이크로바이옴’의 매력은</t>
         </is>
       </c>
       <c r="B86" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 17:21</t>
         </is>
       </c>
     </row>
     <row r="87">
       <c r="A87" t="inlineStr">
         <is>
-          <t>방역당국 “오미크론 감염 4명 늘어…백신 접종 독려”</t>
+          <t>경남 남해군 야산에서 불...잔불 정리 중</t>
         </is>
       </c>
       <c r="B87" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="88">
       <c r="A88" t="inlineStr">
         <is>
-          <t>"경보음 없이 풀린 전자발찌"...법무부 "신형 보급 중"</t>
+          <t>울산 북구, 노인정책분야 우수지자체 선정…장기요양 분야 높은 평가</t>
         </is>
       </c>
       <c r="B88" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="89">
       <c r="A89" t="inlineStr">
         <is>
-          <t>3년 차 이상 민방위 대면교육 47년 만에 폐지</t>
+          <t>행안부, 내년 소방안전교부세 8,647억 원 지자체 교부</t>
         </is>
       </c>
       <c r="B89" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="90">
       <c r="A90" t="inlineStr">
         <is>
-          <t>안양시, 도시생태현황지도 제작…서식 동식물 2229종 확인</t>
+          <t>[부산] 부산소방재난본부, 소방 업체 등 법령 위반 80건 적발</t>
         </is>
       </c>
       <c r="B90" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="91">
       <c r="A91" t="inlineStr">
         <is>
-          <t>경남정보대 신임 총장, 김대식 동서대 대외협력부총장 선임</t>
+          <t>구인에도 채용 못한 '미충원 인원' 11만4천명…10년만에 최다(종합)</t>
         </is>
       </c>
       <c r="B91" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="92">
       <c r="A92" t="inlineStr">
         <is>
-          <t>법무부 "공주교도소 재소자 사망사건 수사 착수···폭행 가능성"</t>
+          <t>정치개혁경남행동 “선거구획정 불통 도지사권한대행 교체 투쟁”</t>
         </is>
       </c>
       <c r="B92" t="inlineStr">
         <is>
-          <t>2021.12.28 15:35</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="93">
       <c r="A93" t="inlineStr">
         <is>
-          <t>자랑스러운 충북도민 수상자 3명 선정…요소수 위기 극복 기여</t>
+          <t>경찰, 김건희 '허위 경력 의혹' 고발인 조사</t>
         </is>
       </c>
       <c r="B93" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="94">
       <c r="A94" t="inlineStr">
         <is>
-          <t>'박치기 왕' 故 김일 선수 동상 고향 고흥에 건립</t>
+          <t>내년에 달라지는 전라남도 시책은?…7대 분야, 127건</t>
         </is>
       </c>
       <c r="B94" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:20</t>
         </is>
       </c>
     </row>
     <row r="95">
       <c r="A95" t="inlineStr">
         <is>
-          <t>경기도 ‘농촌기본소득’ 시범대상지에 연천군 청산면 선정</t>
+          <t>‘역사 왜곡 논란’ 설강화 상영금지 가처분 기각…예정대로 방영</t>
         </is>
       </c>
       <c r="B95" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:19</t>
         </is>
       </c>
     </row>
     <row r="96">
       <c r="A96" t="inlineStr">
         <is>
-          <t>MBN '대한민국 좋은정책대회' 개최</t>
+          <t>부산 동명대에 대학병원급 동물병원 유치 움직임 본격화</t>
         </is>
       </c>
       <c r="B96" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:19</t>
         </is>
       </c>
     </row>
     <row r="97">
       <c r="A97" t="inlineStr">
         <is>
-          <t>경기도내 60세 이상 3차 접종률 82%…두달만에 신규확진↓</t>
+          <t>매일신문 선정 2021년 대구경북 10대 뉴스</t>
         </is>
       </c>
       <c r="B97" t="inlineStr">
         <is>
-          <t>2021.12.28 15:34</t>
+          <t>2021.12.29 17:19</t>
         </is>
       </c>
     </row>
     <row r="98">
       <c r="A98" t="inlineStr">
         <is>
-          <t>[부고] 배극인(동아일보 논설위원)씨 모친상</t>
+          <t>오늘의 부고 종합</t>
         </is>
       </c>
       <c r="B98" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:19</t>
         </is>
       </c>
     </row>
     <row r="99">
       <c r="A99" t="inlineStr">
         <is>
-          <t>청주 내수·북이 주민들 "공군 비행장 이전하라" 촉구</t>
+          <t>5t 트럭에 현금 다발과 저금통…22년째 이어진 ‘얼굴 없는 천사’의 선행</t>
         </is>
       </c>
       <c r="B99" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:19</t>
         </is>
       </c>
     </row>
     <row r="100">
       <c r="A100" t="inlineStr">
         <is>
-          <t>거창군, 2021년 하반기 퇴직 공무원…명예로운 공직생활 마감</t>
+          <t>통계로 확인된 소상공인 매출 반토막…빚만 늘었다</t>
         </is>
       </c>
       <c r="B100" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:18</t>
         </is>
       </c>
     </row>
     <row r="101">
       <c r="A101" t="inlineStr">
         <is>
-          <t>줄지어 설치된 노숙인 텐트</t>
+          <t>국내 최초 민간과학 로켓 블루웨일0.1 제주 상공을 날다(종합)</t>
         </is>
       </c>
       <c r="B101" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:18</t>
         </is>
       </c>
     </row>
     <row r="102">
       <c r="A102" t="inlineStr">
         <is>
-          <t>줄지어 설치된 노숙인 텐트</t>
+          <t>문화중심도시 광주 기반시설 확대에 총력</t>
         </is>
       </c>
       <c r="B102" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:18</t>
         </is>
       </c>
     </row>
     <row r="103">
       <c r="A103" t="inlineStr">
         <is>
-          <t>서울시, '로봇‧드론' 등 4차산업 청소년 교육 강화</t>
+          <t>임실군 ‘화물자동차 공영차고지’ 준공…주차난 해소 기대</t>
         </is>
       </c>
       <c r="B103" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:18</t>
         </is>
       </c>
     </row>
     <row r="104">
       <c r="A104" t="inlineStr">
         <is>
-          <t>[창원24시] 창원시, 한국형 항모 도입 특별세미나 개최</t>
+          <t>제주 버스정류소 상당수 교통약자 접근성 떨어져</t>
         </is>
       </c>
       <c r="B104" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:18</t>
         </is>
       </c>
     </row>
     <row r="105">
       <c r="A105" t="inlineStr">
         <is>
-          <t>10년 넘게 골목 청소한 할아버지, 성탄 전날 만취 덤프트럭에 ‘참변’ [영상]</t>
+          <t>내일부터 오미크론 확진자 ‘확’ 늘 듯</t>
         </is>
       </c>
       <c r="B105" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:18</t>
         </is>
       </c>
     </row>
     <row r="106">
       <c r="A106" t="inlineStr">
         <is>
-          <t>당국 "오미크론 확진자·밀접접촉자 격리 14→10일 단축"</t>
+          <t>워케이션·친환경여행 인기..내년 디깅·백신클럽 득세</t>
         </is>
       </c>
       <c r="B106" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:18</t>
         </is>
       </c>
     </row>
     <row r="107">
       <c r="A107" t="inlineStr">
         <is>
-          <t>가야대, 취업이 강한 대학으로 자리매김</t>
+          <t>각급 법원, 법원장 후보 추천 완료...다음달 25일 결정</t>
         </is>
       </c>
       <c r="B107" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:18</t>
         </is>
       </c>
     </row>
     <row r="108">
       <c r="A108" t="inlineStr">
         <is>
-          <t>서울역 노숙인 방역 상황은?</t>
+          <t>“한손으로 안다가”…신생아 떨어뜨려 숨지게 한 산후도우미</t>
         </is>
       </c>
       <c r="B108" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:18</t>
         </is>
       </c>
     </row>
     <row r="109">
       <c r="A109" t="inlineStr">
         <is>
-          <t>신임 한국출판문화산업진흥원장에 김준희 전 능률교육 대표이사</t>
+          <t>CJ 택배 노동자들, 사회적 합의 이행 촉구</t>
         </is>
       </c>
       <c r="B109" t="inlineStr">
         <is>
-          <t>2021.12.28 15:33</t>
+          <t>2021.12.29 17:17</t>
         </is>
       </c>
     </row>
     <row r="110">
       <c r="A110" t="inlineStr">
         <is>
-          <t>정읍시, 내년부터 모든 출산 가정에 ‘첫만남이용권’ 200만원 지원</t>
+          <t>경찰, 尹 부인 김건희 '허위 경력 의혹' 고발인 조사</t>
         </is>
       </c>
       <c r="B110" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:17</t>
         </is>
       </c>
     </row>
     <row r="111">
       <c r="A111" t="inlineStr">
         <is>
-          <t>[인사] 한국기술교육대</t>
+          <t>실탄 발사하는 경찰</t>
         </is>
       </c>
       <c r="B111" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:17</t>
         </is>
       </c>
     </row>
     <row r="112">
       <c r="A112" t="inlineStr">
         <is>
-          <t>서울역 노숙인 방역 상황은?</t>
+          <t>실탄 발사하는 경찰</t>
         </is>
       </c>
       <c r="B112" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:17</t>
         </is>
       </c>
     </row>
     <row r="113">
       <c r="A113" t="inlineStr">
         <is>
-          <t>서울역에 설치된 노숙인 텐트</t>
+          <t>코로나·추위 뚫고 정예 공군부사관 380명 탄생</t>
         </is>
       </c>
       <c r="B113" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:17</t>
         </is>
       </c>
     </row>
     <row r="114">
       <c r="A114" t="inlineStr">
         <is>
-          <t>구로구, '상습정체' 좁은 도로 곳곳 확장…"교통불편 해소"</t>
+          <t>제주 5가구중 1가구 월평균 소득 '200~300만 원'</t>
         </is>
       </c>
       <c r="B114" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:17</t>
         </is>
       </c>
     </row>
     <row r="115">
       <c r="A115" t="inlineStr">
         <is>
-          <t>서울역에 설치된 노숙인 텐트</t>
+          <t>내일 다시 ‘한파’ 아침 최저 영하 12도…1일까지 영하 10도</t>
         </is>
       </c>
       <c r="B115" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:17</t>
         </is>
       </c>
     </row>
     <row r="116">
       <c r="A116" t="inlineStr">
         <is>
-          <t>거제 하루사이에 42명 확진, 초등2개·고교 1개교 임시선별진료소 설치</t>
+          <t>어린이집·유치원 관련 오미크론 추정 사례 13건 추가, 확산세 일파만파</t>
         </is>
       </c>
       <c r="B116" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:17</t>
         </is>
       </c>
     </row>
     <row r="117">
       <c r="A117" t="inlineStr">
         <is>
-          <t>[교육소식]디제이케어 장대정 대표, 충남대 발전기금 기부 등</t>
+          <t>산재보험료율 4년 만에 인하 제동···인상 수순 밟나</t>
         </is>
       </c>
       <c r="B117" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:17</t>
         </is>
       </c>
     </row>
     <row r="118">
       <c r="A118" t="inlineStr">
         <is>
-          <t>서울 중구, ‘어린이 안전대상’ 행안부 장관상 수상</t>
+          <t>[신년사] 임종식 경북도교육감 “따뜻한 경북교육 향한 동행 완성해 나가겠다”</t>
         </is>
       </c>
       <c r="B118" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:17</t>
         </is>
       </c>
     </row>
     <row r="119">
       <c r="A119" t="inlineStr">
         <is>
-          <t>박형준 3차 공판 비공개 진행…국정원 직원 출석</t>
+          <t>"연내 짐싸라" 임대차 갈등…부산 반여자동차매매단지 계약연장 해결 실마리</t>
         </is>
       </c>
       <c r="B119" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:16</t>
         </is>
       </c>
     </row>
     <row r="120">
       <c r="A120" t="inlineStr">
         <is>
-          <t>[인사]경상남도선거관리위원회</t>
+          <t>실내체육시설 방역 점검</t>
         </is>
       </c>
       <c r="B120" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:16</t>
         </is>
       </c>
     </row>
     <row r="121">
       <c r="A121" t="inlineStr">
         <is>
-          <t>여수시, 소제지구 택지개발 현장 '민원상담실' 운영</t>
+          <t>문체부 2차관, 실내체육시설 방역 점검</t>
         </is>
       </c>
       <c r="B121" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:16</t>
         </is>
       </c>
     </row>
     <row r="122">
       <c r="A122" t="inlineStr">
         <is>
-          <t>마주 앉은 윤호중-김기현, 여야 원내대표 회동</t>
+          <t>실내체육시설에 방역물품 전달하는 오영우 2차관</t>
         </is>
       </c>
       <c r="B122" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:16</t>
         </is>
       </c>
     </row>
     <row r="123">
       <c r="A123" t="inlineStr">
         <is>
-          <t>김재연 "CJ대한통운, 대국민 사과하고 사회적 합의 이행하라"</t>
+          <t>박근혜, 설까지 병원서 치료… "의료진 소견 따라 결정"</t>
         </is>
       </c>
       <c r="B123" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:16</t>
         </is>
       </c>
     </row>
     <row r="124">
       <c r="A124" t="inlineStr">
         <is>
-          <t>“밥 안 차려줘서…” 잠자던 어머니 폭행해 숨지게 한 30대</t>
+          <t>한국산기대, '정왕권 평생학습 특화 프로그램' 운영</t>
         </is>
       </c>
       <c r="B124" t="inlineStr">
         <is>
-          <t>2021.12.28 15:32</t>
+          <t>2021.12.29 17:16</t>
         </is>
       </c>
     </row>
     <row r="125">
       <c r="A125" t="inlineStr">
         <is>
-          <t>서울역에 설치된 노숙인 텐트</t>
+          <t>남부발전, 2045 탄소중립 달성 선포</t>
         </is>
       </c>
       <c r="B125" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:16</t>
         </is>
       </c>
     </row>
     <row r="126">
       <c r="A126" t="inlineStr">
         <is>
-          <t>서울역에 설치된 노숙인 텐트</t>
+          <t>설강화 예정대로 방영···법원, 상영금지 가처분 기각</t>
         </is>
       </c>
       <c r="B126" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:16</t>
         </is>
       </c>
     </row>
     <row r="127">
       <c r="A127" t="inlineStr">
         <is>
-          <t>제주영어교육도시 2단계 '주민참여'로 갈등조정</t>
+          <t xml:space="preserve">한국도로공사, 노사 합동 ESG 경영 선포  </t>
         </is>
       </c>
       <c r="B127" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:16</t>
         </is>
       </c>
     </row>
     <row r="128">
       <c r="A128" t="inlineStr">
         <is>
-          <t>서울역에 설치된 노숙인 텐트</t>
+          <t>'설강화' 상영금지 가처분 신청 기각…"국민이 맹목적으로 수용 어려워"(종합)</t>
         </is>
       </c>
       <c r="B128" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:15</t>
         </is>
       </c>
     </row>
     <row r="129">
       <c r="A129" t="inlineStr">
         <is>
-          <t>거창군, 사전예약 없이 3차 접종 당일 실시</t>
+          <t>오늘의 인사 종합</t>
         </is>
       </c>
       <c r="B129" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:15</t>
         </is>
       </c>
     </row>
     <row r="130">
       <c r="A130" t="inlineStr">
         <is>
-          <t>서울역에 설치된 노숙인 텐트</t>
+          <t>영주여고 영여 예술제 "우리가 기획한 축제, 끼 맘껏 발산했죠"</t>
         </is>
       </c>
       <c r="B130" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:15</t>
         </is>
       </c>
     </row>
     <row r="131">
       <c r="A131" t="inlineStr">
         <is>
-          <t>'천천히 걸으세요' 코로나19 환자 이송하는 의료진</t>
+          <t>'(사)연제이웃사랑회' 감염보호복 1,750벌 지정 기부…부산소방재난본부 감사 인사</t>
         </is>
       </c>
       <c r="B131" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:15</t>
         </is>
       </c>
     </row>
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>BTS '뷔' 모교 대구대성초에 초대형 벽화</t>
+          <t>삼바, 송도 산업시설 용지 우선협상대상자 선정</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:15</t>
         </is>
       </c>
     </row>
     <row r="133">
       <c r="A133" t="inlineStr">
         <is>
-          <t>메타버스로 '어린이 화상병원' 체험해보니</t>
+          <t>검찰, '50억 클럽' 박영수 한달만에 재차 소환</t>
         </is>
       </c>
       <c r="B133" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:15</t>
         </is>
       </c>
     </row>
     <row r="134">
       <c r="A134" t="inlineStr">
         <is>
-          <t>오미크론 확진자·밀접접촉자 격리 14일에서 10일로 단축</t>
+          <t>시민단체 "'광주시, 무등산 케이블카 설치 구상 철회해야"</t>
         </is>
       </c>
       <c r="B134" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:14</t>
         </is>
       </c>
     </row>
     <row r="135">
       <c r="A135" t="inlineStr">
         <is>
-          <t>원주 코로나19 확진자 1명(3,032번) 추가 발생</t>
+          <t>오영우 2차관, 실내체육시설에 방역물품 전달</t>
         </is>
       </c>
       <c r="B135" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:14</t>
         </is>
       </c>
     </row>
     <row r="136">
       <c r="A136" t="inlineStr">
         <is>
-          <t>악수하는 윤호중-김기현, 원내대표 회동</t>
+          <t>오영우 2차관  ‘실내체육시설 방역현장 점검’</t>
         </is>
       </c>
       <c r="B136" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:14</t>
         </is>
       </c>
     </row>
     <row r="137">
       <c r="A137" t="inlineStr">
         <is>
-          <t>2022년엔 '탄소중립 포인트' 모아보세요</t>
+          <t>실내체육시설 방역 점검하는 오영우 2차관</t>
         </is>
       </c>
       <c r="B137" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:14</t>
         </is>
       </c>
     </row>
     <row r="138">
       <c r="A138" t="inlineStr">
         <is>
-          <t>동파 배관 점검하던 40대 노동자 추락사..."안전장비 미착용"</t>
+          <t>[1보] JTBC  '설강화' 상영금지 가처분 신청 기각…예정대로 방영</t>
         </is>
       </c>
       <c r="B138" t="inlineStr">
         <is>
-          <t>2021.12.28 15:31</t>
+          <t>2021.12.29 17:14</t>
         </is>
       </c>
     </row>
     <row r="139">
       <c r="A139" t="inlineStr">
         <is>
-          <t>[게시판] 소상공인연합회. 국회의원 12명에 '초정대상' 시상</t>
+          <t>[속보] '50억 클럽 의혹' 박영수 전 특검 두번째 검찰 출석</t>
         </is>
       </c>
       <c r="B139" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:14</t>
         </is>
       </c>
     </row>
     <row r="140">
       <c r="A140" t="inlineStr">
         <is>
-          <t>의식 잃고 쓰러진 행인 구호 조치는 커녕 돈만 '슬쩍'</t>
+          <t>델타 확산세 꺾인 지금, 오미크론 대응 의료체계 마련할 골든타임 [뉴스분석]</t>
         </is>
       </c>
       <c r="B140" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:14</t>
         </is>
       </c>
     </row>
     <row r="141">
       <c r="A141" t="inlineStr">
         <is>
-          <t>진주시, 아동복지시설 종사자 처우 대폭 개선…도내 유일 ‘호봉제’ 추진</t>
+          <t>영덕군,‘2022년 겨울방학 대학생 일자리 사업’ 참여자 선발</t>
         </is>
       </c>
       <c r="B141" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:14</t>
         </is>
       </c>
     </row>
     <row r="142">
       <c r="A142" t="inlineStr">
         <is>
-          <t>'음주운전 차단' 전주시설공단, 임직원 매년 운전경력 확인</t>
+          <t>검찰, '50억 클럽' 박영수 전 특검 재소환</t>
         </is>
       </c>
       <c r="B142" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:14</t>
         </is>
       </c>
     </row>
     <row r="143">
       <c r="A143" t="inlineStr">
         <is>
-          <t>오세훈 서울시장 '문과생도 성공사례 많이 나왔으면'</t>
+          <t>포항시, '2022년 호미곶 등 해맞이 행사 취소'</t>
         </is>
       </c>
       <c r="B143" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:14</t>
         </is>
       </c>
     </row>
     <row r="144">
       <c r="A144" t="inlineStr">
         <is>
-          <t>구호 외치는 김재연</t>
+          <t>'설강화' 상영금지 가처분신청 기각…법원 "국민 맹목적 수용 안해"(종합)</t>
         </is>
       </c>
       <c r="B144" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="145">
       <c r="A145" t="inlineStr">
         <is>
-          <t>구호 외치는 CJ대한통운 택배노동자들</t>
+          <t>도로교통공단, 사랑의 열매에 508만원 성금 기부</t>
         </is>
       </c>
       <c r="B145" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="146">
       <c r="A146" t="inlineStr">
         <is>
-          <t>청년취업사관학교 금천캠퍼스 '수료생에게 듣는 바라는 점'</t>
+          <t>불법 촬영 카메라 설치한 경찰관 파면…"직분 망각한 행위"</t>
         </is>
       </c>
       <c r="B146" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="147">
       <c r="A147" t="inlineStr">
         <is>
-          <t>천막 공사 중 추락사 12월에만 2명…고용부, 안전수칙 준수해라</t>
+          <t>신한은행, 52~53세 본부장 대거 선임해 세대교체</t>
         </is>
       </c>
       <c r="B147" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="148">
       <c r="A148" t="inlineStr">
         <is>
-          <t>청년취업사관학교 금천캠퍼스 개관</t>
+          <t>대구교육청, 2022학년도 후기고 입학전형 합격자 발표</t>
         </is>
       </c>
       <c r="B148" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="149">
       <c r="A149" t="inlineStr">
         <is>
-          <t>연천군, '포천세무서 연천군민원실' 개소…군민 국세 관련 편의 높여</t>
+          <t>광주교육청-학교비정규직연대, 단체협약 체결…휴가 확대</t>
         </is>
       </c>
       <c r="B149" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="150">
       <c r="A150" t="inlineStr">
         <is>
-          <t>위중증 천명대, 긴장감도는 코로나 전담병원</t>
+          <t>지인과 짜고 수차례 고의 사고… 보험금 5억 5000만원 탄 20대</t>
         </is>
       </c>
       <c r="B150" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:13</t>
         </is>
       </c>
     </row>
     <row r="151">
       <c r="A151" t="inlineStr">
         <is>
-          <t>오세훈 서울시장 '안녕하세요'</t>
+          <t>'설강화' 예정대로 방영…상영금지 가처분 신청 기각</t>
         </is>
       </c>
       <c r="B151" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="152">
       <c r="A152" t="inlineStr">
         <is>
-          <t>인사말하는 오세훈 서울시장</t>
+          <t>경찰관 잇단 감염…정용근 충북청장, 일선서 방역 점검</t>
         </is>
       </c>
       <c r="B152" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="153">
       <c r="A153" t="inlineStr">
         <is>
-          <t>CJ대한통운 택배노동자 집회 참석한 김재연</t>
+          <t>전남병원간호사회, 화순전남대병원에 발전후원금 기탁</t>
         </is>
       </c>
       <c r="B153" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="154">
       <c r="A154" t="inlineStr">
         <is>
-          <t>청년취업사관학교 금천캠퍼스 개관</t>
+          <t>경남도, 서부경남 우주·활력·복합도시로 만든다</t>
         </is>
       </c>
       <c r="B154" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="155">
       <c r="A155" t="inlineStr">
         <is>
-          <t>오세훈 서울시장 '청년취업사관학교 금천캠퍼스 개관을 축하합니다'</t>
+          <t>안양문화예술재단, 인권경영문 선포</t>
         </is>
       </c>
       <c r="B155" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="156">
       <c r="A156" t="inlineStr">
         <is>
-          <t>폐경 여성, 우울증 있으면 ‘골다공증 위험’ 1.4배↑</t>
+          <t>"코로나19 번질라" 충북 해넘이·해맞이 2년째 올스톱</t>
         </is>
       </c>
       <c r="B156" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="157">
       <c r="A157" t="inlineStr">
         <is>
-          <t>덕산, 적십자사 제주지사에 희망나눔 특별성금 1억원 기탁</t>
+          <t>'내부 비리 폭로' 최혁진 보훈공단 이사, 공단 관계자 고소</t>
         </is>
       </c>
       <c r="B157" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="158">
       <c r="A158" t="inlineStr">
         <is>
-          <t>[인사] BNK경남은행</t>
+          <t>의정부을지대병원 2대 병원장에 김병식 교수 취임</t>
         </is>
       </c>
       <c r="B158" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="159">
       <c r="A159" t="inlineStr">
         <is>
-          <t>인하대병원, 외래진료비 카카오 간편결제 서비스</t>
+          <t>대전 찾은 우원식 “내년 대선, 향후 20년 정치지형 결정”</t>
         </is>
       </c>
       <c r="B159" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="160">
       <c r="A160" t="inlineStr">
         <is>
-          <t>청년취업사관학교 금천캠퍼스 찾은 오세훈 서울시장</t>
+          <t>돈이 없어서...미혼남녀 10명 중 6명 “결혼은 사치”</t>
         </is>
       </c>
       <c r="B160" t="inlineStr">
         <is>
-          <t>2021.12.28 15:30</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="161">
       <c r="A161" t="inlineStr">
         <is>
-          <t>8일째 위중증 환자 천명대, 긴장감도는 전담병원</t>
+          <t>인천 지역화폐, 최우수기관상</t>
         </is>
       </c>
       <c r="B161" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="162">
       <c r="A162" t="inlineStr">
         <is>
-          <t>구호 외치는 김재연</t>
+          <t>[인사] 경기 용인시</t>
         </is>
       </c>
       <c r="B162" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="163">
       <c r="A163" t="inlineStr">
         <is>
-          <t>오세훈 서울시장 '성공사례 많이 나오길'</t>
+          <t>한국도로공사, 노사 합동 ESG 경영 선포</t>
         </is>
       </c>
       <c r="B163" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:12</t>
         </is>
       </c>
     </row>
     <row r="164">
       <c r="A164" t="inlineStr">
         <is>
-          <t>전국 지하 철도시설물 레이더로 탐사한다…지반침하 사고 예방</t>
+          <t>내년에 달라지는 경기도 행정제도와 정책은</t>
         </is>
       </c>
       <c r="B164" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>[인천] 인천교육감 "학생 접종률이 내년 전면등교에 영향"</t>
+          <t>CJ대한통운 택배노조 파업 이틀째…노원 등 일부 지역 택배발송 중단</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="166">
       <c r="A166" t="inlineStr">
         <is>
-          <t>송파구 21층 건물 지하 주차장서 불…100여명 대피</t>
+          <t>이준석, '성접대 의혹' 제기한 강용석·김세의 명예훼손 고소</t>
         </is>
       </c>
       <c r="B166" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="167">
       <c r="A167" t="inlineStr">
         <is>
-          <t>구호 외치는 CJ대한통운 택배노동자들</t>
+          <t>박화진 고용차관, 배달 라이더 고용보험 적용 내용 안내</t>
         </is>
       </c>
       <c r="B167" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="168">
       <c r="A168" t="inlineStr">
         <is>
-          <t>국토부 앞에 모인 CJ대한통운 택배노동자들</t>
+          <t>배달 라이더 고용보험 적용 안내하는 박화진 차관</t>
         </is>
       </c>
       <c r="B168" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="169">
       <c r="A169" t="inlineStr">
         <is>
-          <t>"전북 보건의료노동자 절반이상 대체휴일 근무하고 보상 못받아"</t>
+          <t>'새해부터 퀵서비스·대리기사도 고용보험 가입 가능'</t>
         </is>
       </c>
       <c r="B169" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="170">
       <c r="A170" t="inlineStr">
         <is>
-          <t>전북 참예우 우수 축산물브랜드 인증 14년 연속 수상</t>
+          <t>새해부터 퀵서비스·대리운전기사도 고용보험 적용</t>
         </is>
       </c>
       <c r="B170" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="171">
       <c r="A171" t="inlineStr">
         <is>
-          <t>구호 외치는 CJ대한통운 택배노동자들</t>
+          <t>'내년부터 배달라이더도 고용보험 적용됩니다'</t>
         </is>
       </c>
       <c r="B171" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="172">
       <c r="A172" t="inlineStr">
         <is>
-          <t>[속보] '통장증명 위조' 징역 1년 윤석열 장모 항소</t>
+          <t>인천교통공사, 내달부터 지하철 7호선 부천 구간 운영</t>
         </is>
       </c>
       <c r="B172" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="173">
       <c r="A173" t="inlineStr">
         <is>
-          <t>"지역 예술발전 기여"…제천문화재단 장관상 수상</t>
+          <t>김해시 올해 ‘베스트 시정 10’ 선정</t>
         </is>
       </c>
       <c r="B173" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="174">
       <c r="A174" t="inlineStr">
         <is>
-          <t>내년부터 선박교통관제구역 진출신고 의무 완화</t>
+          <t>남도학숙 내년 신규 입사생 모집</t>
         </is>
       </c>
       <c r="B174" t="inlineStr">
         <is>
-          <t>2021.12.28 15:29</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="175">
       <c r="A175" t="inlineStr">
         <is>
-          <t>규탄 피켓 든 CJ대한통운 택배노동자들</t>
+          <t>[속보] 이준석 측, 성상납 의혹 제기 가세연 '허위사실 명예훼손' 고소</t>
         </is>
       </c>
       <c r="B175" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="176">
       <c r="A176" t="inlineStr">
         <is>
-          <t>홍성 장곡에 대중 골프장 들어선다…군·금비레저 MOU 체결</t>
+          <t>현대건설, 평택 서정동에 1107가구 규모 ‘스테이트 평택 더퍼스트’ 분양</t>
         </is>
       </c>
       <c r="B176" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="177">
       <c r="A177" t="inlineStr">
         <is>
-          <t>국토부 앞에 모인 CJ대한통운 택배노동자들</t>
+          <t>광주시, 에너지자립 마중물 에너지 전환기금 조성</t>
         </is>
       </c>
       <c r="B177" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="178">
       <c r="A178" t="inlineStr">
         <is>
-          <t>국토부 앞에 모인 CJ대한통운 택배노동자들</t>
+          <t>대전, 산단 제한업종 조정 검토</t>
         </is>
       </c>
       <c r="B178" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:11</t>
         </is>
       </c>
     </row>
     <row r="179">
       <c r="A179" t="inlineStr">
         <is>
-          <t>대전 자치경찰부장에 임정주 서울청 정보상황과장 내정</t>
+          <t>CJ대한통운 택배노조 파업 2일차 "이재현 회장 답하라"[뉴시스Pic]</t>
         </is>
       </c>
       <c r="B179" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:10</t>
         </is>
       </c>
     </row>
     <row r="180">
       <c r="A180" t="inlineStr">
         <is>
-          <t>규탄 피켓 든 CJ대한통운 택배노동자들</t>
+          <t>오세훈 '생존지원금 7700억' 최종 협의안…시의회 결정은</t>
         </is>
       </c>
       <c r="B180" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:10</t>
         </is>
       </c>
     </row>
     <row r="181">
       <c r="A181" t="inlineStr">
         <is>
-          <t>검찰, 외주 제작비 부풀려 3억 원 챙긴 EBS PD 구속기소</t>
+          <t>대학 정원 줄이면 '당근' 못줄이면 '채찍'…1조 투입해 감축유도(종합)</t>
         </is>
       </c>
       <c r="B181" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:10</t>
         </is>
       </c>
     </row>
     <row r="182">
       <c r="A182" t="inlineStr">
         <is>
-          <t>진료센터로 향하는 코로나19 환자</t>
+          <t>경기도, 감사제보 처리 우수기관</t>
         </is>
       </c>
       <c r="B182" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:10</t>
         </is>
       </c>
     </row>
     <row r="183">
       <c r="A183" t="inlineStr">
         <is>
-          <t>규탄 피켓 든 CJ대한통운 택배노동자들</t>
+          <t>오늘의 운세 (2021년 12월 30일 木)</t>
         </is>
       </c>
       <c r="B183" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:10</t>
         </is>
       </c>
     </row>
     <row r="184">
       <c r="A184" t="inlineStr">
         <is>
-          <t>익산 마동지역주택조합 일부 조합원 "사기 피해" VS 대행사 "정상 업무 중"</t>
+          <t>현행 거리두기 '2주 연장' 가닥…당정 "연장 필요성 공감"</t>
         </is>
       </c>
       <c r="B184" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:10</t>
         </is>
       </c>
     </row>
     <row r="185">
       <c r="A185" t="inlineStr">
         <is>
-          <t>집회 준비하는 CJ대한통운 택배노동자들</t>
+          <t>기업들 내년 1분기에만 40만명 채용…14년만에 최대 역대 최다 규모</t>
         </is>
       </c>
       <c r="B185" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="186">
       <c r="A186" t="inlineStr">
         <is>
-          <t>“밥 안 주고 계속 잠자서...”  60대 어머니 때려 숨지게 한 30대 구속</t>
+          <t>동신대, 30일 정시 가·다군 원서접수 시작…1월3일까지</t>
         </is>
       </c>
       <c r="B186" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="187">
       <c r="A187" t="inlineStr">
         <is>
-          <t>[포토]성남종합버스터미널 휴업 철회, 내년 정상 운영</t>
+          <t>강릉원주대 치위생학과 졸업예정자 전원, 국가고시 합격</t>
         </is>
       </c>
       <c r="B187" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="188">
       <c r="A188" t="inlineStr">
         <is>
-          <t>[포토]성남버스터미널 휴업 방침 전격 철회</t>
+          <t>[영상] 잔인한 도살·무허가 번식…여전한 불법 개 사육장 등 적발</t>
         </is>
       </c>
       <c r="B188" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="189">
       <c r="A189" t="inlineStr">
         <is>
-          <t>포항대, 기관평가인증 전 분야 '충족' 판정 받아</t>
+          <t>노래방으로 위장하고 불법영업한 강남 유흥주점 적발</t>
         </is>
       </c>
       <c r="B189" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="190">
       <c r="A190" t="inlineStr">
         <is>
-          <t>[포토]성남시외버스터미널, 내년에도 정상운행 합니다</t>
+          <t>동신대, 30일 정시모집 가·다군 원서 접수 시작</t>
         </is>
       </c>
       <c r="B190" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="191">
       <c r="A191" t="inlineStr">
         <is>
-          <t>[포토]성남시외버스터미널, 내년 1월 휴업예고 철회키로</t>
+          <t>검찰, ‘50억 클럽 의혹’ 박영수 전 특검 재소환</t>
         </is>
       </c>
       <c r="B191" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="192">
       <c r="A192" t="inlineStr">
         <is>
-          <t>파노로스바이오, 에임드바이오와 공동연구···"신약개발 시너지 기대"</t>
+          <t>한국일보 남보라·전혼잎 기자, 한국여성기자상 수상</t>
         </is>
       </c>
       <c r="B192" t="inlineStr">
         <is>
-          <t>2021.12.28 15:28</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="193">
       <c r="A193" t="inlineStr">
         <is>
-          <t>충남 가로림만에 저수온 주의보 발령</t>
+          <t>[인사] 경북 예천군</t>
         </is>
       </c>
       <c r="B193" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="194">
       <c r="A194" t="inlineStr">
         <is>
-          <t>부산 사흘 연속 200명대 추가 확진…확산세 주춤(종합)</t>
+          <t>검찰, '50억클럽 의혹' 박영수 전 특검 재소환</t>
         </is>
       </c>
       <c r="B194" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="195">
       <c r="A195" t="inlineStr">
         <is>
-          <t>강원도개발공사, 자투리사랑·매칭그랜트 성금 복지단체 전달</t>
+          <t>삼성, 中시안 반도체 사업장 가동률 낮춰…낸드 업황 영향주나(종합2보)</t>
         </is>
       </c>
       <c r="B195" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="196">
       <c r="A196" t="inlineStr">
         <is>
-          <t>[게시판] 대법원, '민사소송 1심 단독재판부 관할 확대' 공청회</t>
+          <t>[영상] "우리 딸, 엄마 왔어"…26년 만에 모녀 비대면 눈물 상봉</t>
         </is>
       </c>
       <c r="B196" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:09</t>
         </is>
       </c>
     </row>
     <row r="197">
       <c r="A197" t="inlineStr">
         <is>
-          <t>미곡처리장에 쌓여 있는 벼</t>
+          <t>'자폐인 디자이너 사회활동 지원사업 협약식'</t>
         </is>
       </c>
       <c r="B197" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="198">
       <c r="A198" t="inlineStr">
         <is>
-          <t>미곡처리장에 쌓여 있는 벼</t>
+          <t>'자폐인 디자이너 사회활동 지원사업 협약식'</t>
         </is>
       </c>
       <c r="B198" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="199">
       <c r="A199" t="inlineStr">
         <is>
-          <t>[교육소식] 광주국제개발협력센터, 광주형 ODA 주제 세미나 등</t>
+          <t>[신년사] 도성훈 인천교육감 "미래교육 도약 준비하겠다"</t>
         </is>
       </c>
       <c r="B199" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="200">
       <c r="A200" t="inlineStr">
         <is>
-          <t>미곡처리장에 쌓여 있는 벼</t>
+          <t>광주시민단체 “무등산 케이블카 설치 철회하라”</t>
         </is>
       </c>
       <c r="B200" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="201">
       <c r="A201" t="inlineStr">
         <is>
-          <t>미곡처리장에 쌓여 있는 벼</t>
+          <t>화순군, 행안부 정보공개 평가서 등급 올라 ‘최우수’</t>
         </is>
       </c>
       <c r="B201" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="202">
       <c r="A202" t="inlineStr">
         <is>
-          <t>'백신패스' 강화에 한숨만 늘어가는 자영업자들</t>
+          <t>광양제철소, '포스튜브 경진대회' 성과물 공유 활성화</t>
         </is>
       </c>
       <c r="B202" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:08</t>
         </is>
       </c>
     </row>
     <row r="203">
       <c r="A203" t="inlineStr">
         <is>
-          <t>순천시 "70세 이상 운전면허 반납하면 50만 원 지급"</t>
+          <t>이준석 측, 성상납 의혹 제기한 '가세연' 강용석 등 고소</t>
         </is>
       </c>
       <c r="B203" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="204">
       <c r="A204" t="inlineStr">
         <is>
-          <t>소아청소년 1차 접종률 70%돌파…“백신 접종이 최선의 방법”</t>
+          <t>고용부 차관, 배달 라이더 쉼터 방문</t>
         </is>
       </c>
       <c r="B204" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="205">
       <c r="A205" t="inlineStr">
         <is>
-          <t>대구 출신 BTS 멤버 '뷔' 생일축하 벽화</t>
+          <t>고용보험 적용 내용 안내하는 고용부 차관</t>
         </is>
       </c>
       <c r="B205" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="206">
       <c r="A206" t="inlineStr">
         <is>
-          <t>전남도, K-바이오 선도할 벤처 육성 박차</t>
+          <t>검찰, ‘통신 조회 논란’ 공수처장 고발 사건 수사 착수</t>
         </is>
       </c>
       <c r="B206" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="207">
       <c r="A207" t="inlineStr">
         <is>
-          <t>전남도, K-바이오 선도할 벤처 육성 박차</t>
+          <t>고용부 차관, 배달 라이더 쉼터 방문</t>
         </is>
       </c>
       <c r="B207" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="208">
       <c r="A208" t="inlineStr">
         <is>
-          <t>빙판길 사고 외국인 돕던 외국인 3명 차량에 치어 숨져</t>
+          <t>[인사] 대전시</t>
         </is>
       </c>
       <c r="B208" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="209">
       <c r="A209" t="inlineStr">
         <is>
-          <t>[포토]성남종합버스터미널 내년 휴업 철회</t>
+          <t>'오징어 게임'으로 소개하는 K컬처, '랜드 오브 스퀴드 게임' 국영문 출간</t>
         </is>
       </c>
       <c r="B209" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="210">
       <c r="A210" t="inlineStr">
         <is>
-          <t>"제설장비 없이 장병들만 X뺑이"···軍, 제설 지원 논란</t>
+          <t>신한은행 월계동지점 폐쇄, 주민 힘으로 막았다</t>
         </is>
       </c>
       <c r="B210" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="211">
       <c r="A211" t="inlineStr">
         <is>
-          <t>삼성 한종희·경계현·고동진, KT 구현모 대표, 공학한림원 정회원 됐다</t>
+          <t>도산서원 방문한 윤석열 대선 후보</t>
         </is>
       </c>
       <c r="B211" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="212">
       <c r="A212" t="inlineStr">
         <is>
-          <t>[인사] 한국전기안전공사</t>
+          <t>안동 도산서원 방문한 윤석열 후보</t>
         </is>
       </c>
       <c r="B212" t="inlineStr">
         <is>
-          <t>2021.12.28 15:27</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="213">
       <c r="A213" t="inlineStr">
         <is>
-          <t>충북참여연대 "청주시 산하 위원회 느는데 질적 평가 없어"</t>
+          <t>윤석열 후보, 안동 도산서원 방문</t>
         </is>
       </c>
       <c r="B213" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="214">
       <c r="A214" t="inlineStr">
         <is>
-          <t>BTS '뷔' 모교 대구대성초 외벽에 아트벽화</t>
+          <t>안동 도산서원 방문한 윤석열 후보</t>
         </is>
       </c>
       <c r="B214" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="215">
       <c r="A215" t="inlineStr">
         <is>
-          <t>BTS '뷔' 모교 대구대성초에 초대형 벽화</t>
+          <t>안동 도산서원 방문한 윤석열 후보</t>
         </is>
       </c>
       <c r="B215" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="216">
       <c r="A216" t="inlineStr">
         <is>
-          <t>안양시 비봉산 힐링공원 조성공사 완료…목재데크·파고라·유아체험장 등 재탄생</t>
+          <t>하버드 의대, 심장 공격하는 백혈구 증가 원인 밝혀냈다</t>
         </is>
       </c>
       <c r="B216" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="217">
       <c r="A217" t="inlineStr">
         <is>
-          <t>부산~울산 잇는 '광역전철'</t>
+          <t>낙후된 서부경남, 언제 미래 첨단도시로 변신할까</t>
         </is>
       </c>
       <c r="B217" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="218">
       <c r="A218" t="inlineStr">
         <is>
-          <t>수매한 벼 살피는 농협 관계자</t>
+          <t>'설강화' 예정대로 방영…법원, 상영금지 가처분 기각</t>
         </is>
       </c>
       <c r="B218" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="219">
       <c r="A219" t="inlineStr">
         <is>
-          <t>BTS '뷔' 모교 대구대성초 외벽에 아트벽화</t>
+          <t>현행 거리두기 2주 연장 가닥…與, '선지원 후정산' 지원 검토</t>
         </is>
       </c>
       <c r="B219" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="220">
       <c r="A220" t="inlineStr">
         <is>
-          <t>수매한 벼 살피는 농협 관계자</t>
+          <t>윤석열 후보,"문재인 정부의 탈원전 정책 절차와 정당성 잃었다"</t>
         </is>
       </c>
       <c r="B220" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="221">
       <c r="A221" t="inlineStr">
         <is>
-          <t>BTS '뷔' 모교 대구대성초에 초대형 벽화</t>
+          <t>“올해도 3명의 할머니가…” 보수단체 훼방 속 열린 2021년 마지막 수요시위</t>
         </is>
       </c>
       <c r="B221" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:07</t>
         </is>
       </c>
     </row>
     <row r="222">
       <c r="A222" t="inlineStr">
         <is>
-          <t>부산~울산 잇는 '광역전철'</t>
+          <t>식약처 "내년부터 업소용 달걀도 포장해 유통해야"</t>
         </is>
       </c>
       <c r="B222" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:06</t>
         </is>
       </c>
     </row>
     <row r="223">
       <c r="A223" t="inlineStr">
         <is>
-          <t>수매한 벼 살피는 농협 관계자</t>
+          <t>'이재명 호남표 챙긴다'…강기정, 민주당 텃밭서 진두지휘</t>
         </is>
       </c>
       <c r="B223" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:06</t>
         </is>
       </c>
     </row>
     <row r="224">
       <c r="A224" t="inlineStr">
         <is>
-          <t>수매한 벼 살피는 농협 관계자</t>
+          <t>공주대 김광훈 교수, 해양수산과학기술대상 우수상</t>
         </is>
       </c>
       <c r="B224" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:06</t>
         </is>
       </c>
     </row>
     <row r="225">
       <c r="A225" t="inlineStr">
         <is>
-          <t>대구 출신 BTS 멤버 '뷔' 생일축하 벽화</t>
+          <t>이낙연 전면 등판...싸늘한 호남 민심 되돌리기 나선다</t>
         </is>
       </c>
       <c r="B225" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="226">
       <c r="A226" t="inlineStr">
         <is>
-          <t>[인사] BNK경남은행</t>
+          <t>광주광역시, 출생아 수 전국 유일 10개월 연속 증가</t>
         </is>
       </c>
       <c r="B226" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="227">
       <c r="A227" t="inlineStr">
         <is>
-          <t>‘순천에서 안동까지’ 순천 7인의 용사 ‘대선승리’ 영남공략</t>
+          <t>검찰, '대장동 50억 클럽 의혹' 박영수 전 특검 재소환</t>
         </is>
       </c>
       <c r="B227" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="228">
       <c r="A228" t="inlineStr">
         <is>
-          <t>울산~부산 잇는 광역전철</t>
+          <t>삼성SDI 자회사 STM은 ‘산재 은폐’…한화는 폭발사고로 5명 숨져</t>
         </is>
       </c>
       <c r="B228" t="inlineStr">
         <is>
-          <t>2021.12.28 15:26</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="229">
       <c r="A229" t="inlineStr">
         <is>
-          <t>푸른바다 가르며</t>
+          <t>검찰, ‘50억원 클럽’ 의혹 박영수 전 특검 소환…로비 수사 재시동</t>
         </is>
       </c>
       <c r="B229" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="230">
       <c r="A230" t="inlineStr">
         <is>
-          <t>울산서 부산 향하는 광역전철</t>
+          <t>'개관 18년 차' 대구 아양스포츠센터 소규모 리모델링…내년 상반기 2개월 휴관</t>
         </is>
       </c>
       <c r="B230" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="231">
       <c r="A231" t="inlineStr">
         <is>
-          <t>울산~부산 동해선 2단계 개통, 푸른바다 달리는 광역전철</t>
+          <t>"궁궐 청소서 시작한 한국 문화 알리기"...문화단체 '아름지기' 30일부터 부산 특별전</t>
         </is>
       </c>
       <c r="B231" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="232">
       <c r="A232" t="inlineStr">
         <is>
-          <t>울산~부산 잇는 동해선 2단계 개통, 달리는 광역전철</t>
+          <t>남부발전, 2045년 화력발전 무탄소 에너지 전환 선언</t>
         </is>
       </c>
       <c r="B232" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:05</t>
         </is>
       </c>
     </row>
     <row r="233">
       <c r="A233" t="inlineStr">
         <is>
-          <t>'푸른바다 가르며'</t>
+          <t>조선대 정시모집 1358명 선발…광역화 모집</t>
         </is>
       </c>
       <c r="B233" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:04</t>
         </is>
       </c>
     </row>
     <row r="234">
       <c r="A234" t="inlineStr">
         <is>
-          <t>거창군 "새해 감악산 해돋이 집에서 감상하세요"</t>
+          <t>[인사]목원대</t>
         </is>
       </c>
       <c r="B234" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:04</t>
         </is>
       </c>
     </row>
     <row r="235">
       <c r="A235" t="inlineStr">
         <is>
-          <t>한려해상국립공원에서도 사실상 일출 못봐 '7시부터 개방'</t>
+          <t>의협 "격리해제자도 음성확인서를" 정부 "전세계 어디도 안 해"</t>
         </is>
       </c>
       <c r="B235" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:04</t>
         </is>
       </c>
     </row>
     <row r="236">
       <c r="A236" t="inlineStr">
         <is>
-          <t>당국 "다음 주부터 오미크론 밀접접촉자 격리기간 10일로 단축"(상보)</t>
+          <t>[인사] 광주은행</t>
         </is>
       </c>
       <c r="B236" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:04</t>
         </is>
       </c>
     </row>
     <row r="237">
       <c r="A237" t="inlineStr">
         <is>
-          <t>대구 출신 BTS 멤버 '뷔' 생일축하 벽화</t>
+          <t>[울산소식]울주군, 대한민국 좋은 정책대회서 최우수상 등</t>
         </is>
       </c>
       <c r="B237" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:03</t>
         </is>
       </c>
     </row>
     <row r="238">
       <c r="A238" t="inlineStr">
         <is>
-          <t>'푸른바다를 달려'</t>
+          <t>국방장관, 코로나19 전담 국군포천병원 현장점검</t>
         </is>
       </c>
       <c r="B238" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:03</t>
         </is>
       </c>
     </row>
     <row r="239">
       <c r="A239" t="inlineStr">
         <is>
-          <t>울산서 부산 향하는 광역전철</t>
+          <t>[인사] 목원대</t>
         </is>
       </c>
       <c r="B239" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:03</t>
         </is>
       </c>
     </row>
     <row r="240">
       <c r="A240" t="inlineStr">
         <is>
-          <t>'푸른바다를 달려'</t>
+          <t>'더 크고 더 강한 광주'…광주대전환 특위 본격 가동</t>
         </is>
       </c>
       <c r="B240" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:03</t>
         </is>
       </c>
     </row>
     <row r="241">
       <c r="A241" t="inlineStr">
         <is>
-          <t>울산~부산 동해선 2단계 구간 달리는 광역전철</t>
+          <t>식약처 "내달부터 음식점·제과점용 달걀도 포장한 뒤 유통해야"</t>
         </is>
       </c>
       <c r="B241" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:03</t>
         </is>
       </c>
     </row>
     <row r="242">
       <c r="A242" t="inlineStr">
         <is>
-          <t>BTS '뷔' 모교 대구대성초 외벽에 아트벽화</t>
+          <t>고의사고만 70여 차례…5억여원 보험금 타낸 20대 징역형</t>
         </is>
       </c>
       <c r="B242" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:03</t>
         </is>
       </c>
     </row>
     <row r="243">
       <c r="A243" t="inlineStr">
         <is>
-          <t>울산~부산 동해선 2단계 개통, 푸른바다 달리는 광역전철</t>
+          <t>김종효 광주시 행정부시장, 코로나19 대시민 호소문 발표</t>
         </is>
       </c>
       <c r="B243" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:03</t>
         </is>
       </c>
     </row>
     <row r="244">
       <c r="A244" t="inlineStr">
         <is>
-          <t>의협, "격리 해제 후 PCR검사 없이 병원 이용 안돼"</t>
+          <t>김종효 광주시 행정부시장, 코로나19 대시민 호소문 발표</t>
         </is>
       </c>
       <c r="B244" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:03</t>
         </is>
       </c>
     </row>
     <row r="245">
       <c r="A245" t="inlineStr">
         <is>
-          <t>BTS '뷔' 모교 대구대성초 외벽에 아트벽화</t>
+          <t>노래방서 13세 女가 성매매 거절하자…18세 실장 마이크로 폭행한 30대 ‘실형’</t>
         </is>
       </c>
       <c r="B245" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:03</t>
         </is>
       </c>
     </row>
     <row r="246">
       <c r="A246" t="inlineStr">
         <is>
-          <t>울산~부산 동해선 2단계 구간 달리는 광역전철</t>
+          <t>'노동자 500일 넘게 투쟁' 일본 산켄전기, 고용노동부 공문에도 무응답</t>
         </is>
       </c>
       <c r="B246" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:03</t>
         </is>
       </c>
     </row>
     <row r="247">
       <c r="A247" t="inlineStr">
         <is>
-          <t>푸른바다 가르며</t>
+          <t>[포토] 라인건설&amp; 라인장학재단, 무정초교 장학금 전달</t>
         </is>
       </c>
       <c r="B247" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:03</t>
         </is>
       </c>
     </row>
     <row r="248">
       <c r="A248" t="inlineStr">
         <is>
-          <t>당정, 쌀값 안정 위한 시장격리 결정</t>
+          <t>최서원 "태블릿PC 돌려달라…내가 썼던 것인지 확인해야"</t>
         </is>
       </c>
       <c r="B248" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="249">
       <c r="A249" t="inlineStr">
         <is>
-          <t>경기도 코로나19 신규 확진자 2달 만에 감소세</t>
+          <t>성인 10명 중 4명 "코로나19 때문에 체중 증가"</t>
         </is>
       </c>
       <c r="B249" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="250">
       <c r="A250" t="inlineStr">
         <is>
-          <t>구민들이 직접 보고 듣고 만들었다…동작구 신년 소식지 발행</t>
+          <t>'전남교육 발전 공헌 5명' 제41회 전라남도교육상 수상</t>
         </is>
       </c>
       <c r="B250" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="251">
       <c r="A251" t="inlineStr">
         <is>
-          <t>긴장감도는 코로나19 전담병원</t>
+          <t>“더 어려운 이웃을 위해”…전주 중증장애인 부부 13년째 수급비 모아 기부</t>
         </is>
       </c>
       <c r="B251" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="252">
       <c r="A252" t="inlineStr">
         <is>
-          <t>울산~부산 동해선 2단계 구간 달리는 광역전철</t>
+          <t>지구대 화장실에 몰카 설치한 경찰 파면</t>
         </is>
       </c>
       <c r="B252" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="253">
       <c r="A253" t="inlineStr">
         <is>
-          <t>울산~부산 잇는 동해선 2단계 개통, 달리는 광역전철</t>
+          <t>13세女 성매매 거절했다고…18세 실장 구타한 30대 실형</t>
         </is>
       </c>
       <c r="B253" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="254">
       <c r="A254" t="inlineStr">
         <is>
-          <t>당정, 쌀값 안정 위한 시장격리 결정</t>
+          <t>부산시, 지역 대학병원에 추가 치료병상 확보 요청</t>
         </is>
       </c>
       <c r="B254" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="255">
       <c r="A255" t="inlineStr">
         <is>
-          <t>BNK경남은행, 172명 승진 등 정기인사 단행</t>
+          <t>그린랩스, 매출 1000억 돌파…새해 디지털농업 해외진출 본격화</t>
         </is>
       </c>
       <c r="B255" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="256">
       <c r="A256" t="inlineStr">
         <is>
-          <t>울산서 부산 향하는 광역전철</t>
+          <t>‘사회적 거리두기’ 2주 연장되나...자가 동선확인 앱 활용 검토(종합)</t>
         </is>
       </c>
       <c r="B256" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="257">
       <c r="A257" t="inlineStr">
         <is>
-          <t>철원군, 옛 군부대 터 활용해 야외 빙상장 운영</t>
+          <t>[인사] 울진군</t>
         </is>
       </c>
       <c r="B257" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="258">
       <c r="A258" t="inlineStr">
         <is>
-          <t>내년부터 선용품 공급도 수출로 인정된다</t>
+          <t>종교시설 방문자 명부 작성하는 황희 장관</t>
         </is>
       </c>
       <c r="B258" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="259">
       <c r="A259" t="inlineStr">
         <is>
-          <t>울산~부산 잇는 동해선 2단계 개통, 달리는 광역전철</t>
+          <t>[인사]신한은행</t>
         </is>
       </c>
       <c r="B259" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:02</t>
         </is>
       </c>
     </row>
     <row r="260">
       <c r="A260" t="inlineStr">
         <is>
-          <t>대장동 사업기간 내년 3월 말까지 연장… 부분 준공 승인 검토</t>
+          <t>[인사]경남 거제시</t>
         </is>
       </c>
       <c r="B260" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="261">
       <c r="A261" t="inlineStr">
         <is>
-          <t>"화이자 먹는 치료제, 함께 복용하면 위험한 약 있어"…전문가 의견은</t>
+          <t>[교육소식]한밭대, 앤에스티와 산학협력 활성화 협약 등</t>
         </is>
       </c>
       <c r="B261" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="262">
       <c r="A262" t="inlineStr">
         <is>
-          <t>이준석, 지역균혈발전 모색 정책토론회 축사</t>
+          <t>카지노서 돈 잃은 50대...가스총 들고 강도 돌변</t>
         </is>
       </c>
       <c r="B262" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="263">
       <c r="A263" t="inlineStr">
         <is>
-          <t>한국예술원(KAC) 영화예술계열, 제25회 졸업 영화제 성료</t>
+          <t>검찰, '수사 무마' 의혹 윤석열·윤대진 무혐의</t>
         </is>
       </c>
       <c r="B263" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="264">
       <c r="A264" t="inlineStr">
         <is>
-          <t>울산~부산 동해선 2단계 구간 달리는 광역전철</t>
+          <t>종교시설 방역현장 의견 듣는 황희 장관</t>
         </is>
       </c>
       <c r="B264" t="inlineStr">
         <is>
-          <t>2021.12.28 15:25</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="265">
       <c r="A265" t="inlineStr">
         <is>
-          <t>울산~부산 동해선 2단계 개통, 푸른바다 달리는 광역전철</t>
+          <t>대구 동구, 안심배달음식점·우수 식품제조업체 선정</t>
         </is>
       </c>
       <c r="B265" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="266">
       <c r="A266" t="inlineStr">
         <is>
-          <t>당정, 쌀값 안정 위한 시장격리 결정</t>
+          <t>김종식 목포시장 "새해도 미래성장 동력 육성 총력"</t>
         </is>
       </c>
       <c r="B266" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="267">
       <c r="A267" t="inlineStr">
         <is>
-          <t>'푸른바다를 달려'</t>
+          <t>김 총리 “코로나19 확산세 진정”…일상회복위 방역조치 연장 논의</t>
         </is>
       </c>
       <c r="B267" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="268">
       <c r="A268" t="inlineStr">
         <is>
-          <t>당정, 쌀값 안정 위한 시장격리 결정</t>
+          <t>사장이 쌍욕에 협박을 해도 ... '직장갑질' 검찰 송치는 단 1%, 왜?</t>
         </is>
       </c>
       <c r="B268" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="269">
       <c r="A269" t="inlineStr">
         <is>
-          <t>울산서 부산 향하는 광역전철</t>
+          <t>'검찰총장 눈·귀' 대검 수정관실 폐지한다… 박범계 "수집·검증 분리"</t>
         </is>
       </c>
       <c r="B269" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="270">
       <c r="A270" t="inlineStr">
         <is>
-          <t>울산~부산 잇는 광역전철</t>
+          <t>안산시, 내년도 공유재산 584곳 사용료·대부료 감면</t>
         </is>
       </c>
       <c r="B270" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="271">
       <c r="A271" t="inlineStr">
         <is>
-          <t>'푸른바다를 달려'</t>
+          <t>과기부, '유료방송업계 상생협의체' 개최 관련 브리핑 [TF사진관]</t>
         </is>
       </c>
       <c r="B271" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="272">
       <c r="A272" t="inlineStr">
         <is>
-          <t>강원 코로나 19 확진 감소...오미크론 변이 확산 우려</t>
+          <t>국민의힘 울산시당, 봉사·복지·시민소통위원회 발대식 개최</t>
         </is>
       </c>
       <c r="B272" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="273">
       <c r="A273" t="inlineStr">
         <is>
-          <t>강북구, 내년 출생아부터 첫만남이용권·영아수당 매달 지원</t>
+          <t>국내 최초 민간 과학로켓 발사, 시스템 정상 작동</t>
         </is>
       </c>
       <c r="B273" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="274">
       <c r="A274" t="inlineStr">
         <is>
-          <t>[뉴시스Pic] 정부서울청사 앞으로 나온 보건의료노조 "군산의료원 파업·의료인력 대책 마련하라"</t>
+          <t>부산교육청-공무원 노조, 4년만에 단체협약 체결</t>
         </is>
       </c>
       <c r="B274" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="275">
       <c r="A275" t="inlineStr">
         <is>
-          <t>2021 인천시 미디어아트 '나도 크리에이터' 공모전 수상작 발표</t>
+          <t>[오늘의 운세]  12월 30일 목요일(음력 11월 27일 壬子)</t>
         </is>
       </c>
       <c r="B275" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="276">
       <c r="A276" t="inlineStr">
         <is>
-          <t>미곡처리장에 쌓인 벼</t>
+          <t>인권침해 논란 빚었던 대구 청소년쉼터…시 전수조사 후 1월까지 감독 나선다</t>
         </is>
       </c>
       <c r="B276" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="277">
       <c r="A277" t="inlineStr">
         <is>
-          <t>미곡처리장에 쌓인 벼</t>
+          <t>안동시, 관광거점도시 육성사업 ‘기재부 적정성 재검토’완료 본격 추진</t>
         </is>
       </c>
       <c r="B277" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:01</t>
         </is>
       </c>
     </row>
     <row r="278">
       <c r="A278" t="inlineStr">
         <is>
-          <t>미곡처리장에 쌓인 벼</t>
+          <t>충북 오후 4시 58명 확진…교육·보육기관 감염 지속</t>
         </is>
       </c>
       <c r="B278" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="279">
       <c r="A279" t="inlineStr">
         <is>
-          <t>국가중심 국공립대 총장협의회장에 권순태 안동대 총장 선출</t>
+          <t>김주하 AI 앵커와 함께하는 이 시각 주요 뉴스 - 12월 29일 오후 5시</t>
         </is>
       </c>
       <c r="B279" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="280">
       <c r="A280" t="inlineStr">
         <is>
-          <t>광주지방법원, 국민참여재판 '우수법원' 선정</t>
+          <t>황희 문화체육관광부 장관 ‘종교시설 방역현장 점검’</t>
         </is>
       </c>
       <c r="B280" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="281">
       <c r="A281" t="inlineStr">
         <is>
-          <t>윤성미 경남도의원, 학교변 횡단보도 교통안전 제도개선 촉구</t>
+          <t>종교시설 방역상황에 대한 의견 나누는 황희 장관</t>
         </is>
       </c>
       <c r="B281" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="282">
       <c r="A282" t="inlineStr">
         <is>
-          <t>전북한우광역브랜드인 '참예우' 14년 연속 우수축산물 브랜드</t>
+          <t>경찰, 김건희 '허위 경력' 의혹 고발인 조사</t>
         </is>
       </c>
       <c r="B282" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="283">
       <c r="A283" t="inlineStr">
         <is>
-          <t>전남교육청, '직업계고 현장실습 추가 개선방안' 마련 촉구</t>
+          <t>과기부, '유료방송업계 상생협의체' 가이드 라인 주요내용 발표</t>
         </is>
       </c>
       <c r="B283" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="284">
       <c r="A284" t="inlineStr">
         <is>
-          <t>지역균혈발전 모색 정책토론회 참석한 이준석 대표</t>
+          <t>과기부, '유료방송업계 상생협의체' 가이드 라인 주요내용 발표</t>
         </is>
       </c>
       <c r="B284" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="285">
       <c r="A285" t="inlineStr">
         <is>
-          <t>[대구24시] 류성걸 "수사기관 개인통신기록 무단 열람 막아야"</t>
+          <t>과기부, '유료방송업계 상생협의체' 가이드 라인 주요내용 발표</t>
         </is>
       </c>
       <c r="B285" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="286">
       <c r="A286" t="inlineStr">
         <is>
-          <t>'이슬이 모여 바다를'…정읍시, 내년 시정운영 '노적성해(露積成海)'</t>
+          <t>과기부, '유료방송업계 상생협의체' 가이드 라인 주요내용 발표</t>
         </is>
       </c>
       <c r="B286" t="inlineStr">
         <is>
-          <t>2021.12.28 15:24</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="287">
       <c r="A287" t="inlineStr">
         <is>
-          <t>미곡처리장에 쌓인 벼</t>
+          <t>부산구치소·부산혈액원, 헌혈문화 확산 협약</t>
         </is>
       </c>
       <c r="B287" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="288">
       <c r="A288" t="inlineStr">
         <is>
-          <t>금오공대 정현재 '2021 대한민국 인재상' 수상</t>
+          <t>과기부, '유료방송업계 상생협의체' 가이드 라인 주요내용 발표</t>
         </is>
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="289">
       <c r="A289" t="inlineStr">
         <is>
-          <t>쌀 27만 톤 정부 매입</t>
+          <t>과기부, '유료방송업계 상생협의체' 가이드 라인 주요내용 발표</t>
         </is>
       </c>
       <c r="B289" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="290">
       <c r="A290" t="inlineStr">
         <is>
-          <t>당정 '쌀 27만 톤 전량 수매'</t>
+          <t>과기부, '유료방송업계 상생협의체' 가이드 라인 주요내용 발표</t>
         </is>
       </c>
       <c r="B290" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="291">
       <c r="A291" t="inlineStr">
         <is>
-          <t>'쌀값 하락 막는다'</t>
+          <t>[속보]법원, JTBC 드라마 ‘설강화’ 방영금지 신청 소송 기각</t>
         </is>
       </c>
       <c r="B291" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="292">
       <c r="A292" t="inlineStr">
         <is>
-          <t>당정 '초과생산 쌀 27만 톤 시장격리'</t>
+          <t>수도권과 가까워진 천안...내년 3월 전철-시내버스 환승 할인</t>
         </is>
       </c>
       <c r="B292" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="293">
       <c r="A293" t="inlineStr">
         <is>
-          <t>당정 '쌀 시장 안정위해 27만 톤 시장격리</t>
+          <t>과기부, '유료방송업계 상생협의체' 가이드 라인 주요내용 발표</t>
         </is>
       </c>
       <c r="B293" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="294">
       <c r="A294" t="inlineStr">
         <is>
-          <t>쌀 27만 톤 정부 매입</t>
+          <t>황희 장관, 종교시설 방역 상황 점검</t>
         </is>
       </c>
       <c r="B294" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 17:00</t>
         </is>
       </c>
     </row>
     <row r="295">
       <c r="A295" t="inlineStr">
         <is>
-          <t>당정 '쌀 27만 톤 전량 수매'</t>
+          <t>황희 장관, 종암중앙교회 방문</t>
         </is>
       </c>
       <c r="B295" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>
     <row r="296">
       <c r="A296" t="inlineStr">
         <is>
-          <t>'과잉 공급 쌀 27만 톤 시장격리'</t>
+          <t>[속보] '설강화' 상영금지 가처분 신청 기각…예정대로 방영</t>
         </is>
       </c>
       <c r="B296" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>
     <row r="297">
       <c r="A297" t="inlineStr">
         <is>
-          <t>당정 '쌀 시장 안정위해 27만 톤 시장격리</t>
+          <t>김천시, 영유아 4천100명에 보육 재난지원금…30만원씩 지급</t>
         </is>
       </c>
       <c r="B297" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>
     <row r="298">
       <c r="A298" t="inlineStr">
         <is>
-          <t>당정 '초과생산 쌀 27만 톤 전량 매입'</t>
+          <t>황희 장관, 종교시설 방역 상황 점검</t>
         </is>
       </c>
       <c r="B298" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>
     <row r="299">
       <c r="A299" t="inlineStr">
         <is>
-          <t>당정 '초과생산 쌀 27만 톤 전량 매입'</t>
+          <t>울주군 아파트서 화재…주민 6명 부상</t>
         </is>
       </c>
       <c r="B299" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>
     <row r="300">
       <c r="A300" t="inlineStr">
         <is>
-          <t>당정 '쌀 27만 톤 전량 수매'</t>
+          <t>경남대학교, '2021 대학기관평가' 인증 획득</t>
         </is>
       </c>
       <c r="B300" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>
     <row r="301">
       <c r="A301" t="inlineStr">
         <is>
-          <t>쌀 27만 톤 정부 매입</t>
+          <t>울산 남구, 추억의 고교시절 특화거리 조성 추진</t>
         </is>
       </c>
       <c r="B301" t="inlineStr">
         <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="302">
-      <c r="A302" t="inlineStr">
-        <is>
-          <t>'쌀값 하락 막는다'</t>
-        </is>
-      </c>
-      <c r="B302" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="303">
-      <c r="A303" t="inlineStr">
-        <is>
-          <t>당정 '쌀 27만 톤 전량 수매'</t>
-        </is>
-      </c>
-      <c r="B303" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="304">
-      <c r="A304" t="inlineStr">
-        <is>
-          <t>쌀 27만 톤 정부 매입</t>
-        </is>
-      </c>
-      <c r="B304" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="305">
-      <c r="A305" t="inlineStr">
-        <is>
-          <t>어머니 폭행해 숨지게 한 혐의 30대 아들 구속</t>
-        </is>
-      </c>
-      <c r="B305" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="306">
-      <c r="A306" t="inlineStr">
-        <is>
-          <t>정부 “위중증·사망 감소할 것…31일 거리두기 단계 결정”</t>
-        </is>
-      </c>
-      <c r="B306" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="307">
-      <c r="A307" t="inlineStr">
-        <is>
-          <t>'해맞이 명소' 삼척해수욕장 1월 1일 오전 6∼8시 출입 통제</t>
-        </is>
-      </c>
-      <c r="B307" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="308">
-      <c r="A308" t="inlineStr">
-        <is>
-          <t>진료센터로 이송되는 코로나 환자</t>
-        </is>
-      </c>
-      <c r="B308" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="309">
-      <c r="A309" t="inlineStr">
-        <is>
-          <t>운전 중 '탕'…제주 도심 한복판서 엽총 오발사고</t>
-        </is>
-      </c>
-      <c r="B309" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="310">
-      <c r="A310" t="inlineStr">
-        <is>
-          <t>학교 확진자 나와도 보건소 지원 늦어…조희연 “질병청 전담부서 신설을”</t>
-        </is>
-      </c>
-      <c r="B310" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="311">
-      <c r="A311" t="inlineStr">
-        <is>
-          <t>식당으로 돌진한 차주, “급발진” 주장…술 냄새 맡은 경찰에 덜미</t>
-        </is>
-      </c>
-      <c r="B311" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="312">
-      <c r="A312" t="inlineStr">
-        <is>
-          <t>경남교육청, 정보공개 종합평가 3년 연속 '최우수'</t>
-        </is>
-      </c>
-      <c r="B312" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="313">
-      <c r="A313" t="inlineStr">
-        <is>
-          <t>코로나19 한 달여 만에 3천명대…병상대기 일주일 새 420명→9명</t>
-        </is>
-      </c>
-      <c r="B313" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="314">
-      <c r="A314" t="inlineStr">
-        <is>
-          <t>답변하는 이준석 대표</t>
-        </is>
-      </c>
-      <c r="B314" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="315">
-      <c r="A315" t="inlineStr">
-        <is>
-          <t>시민도 과감한 경찰 원한다…10명 중 8명 “신규장비 도입해야”</t>
-        </is>
-      </c>
-      <c r="B315" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="316">
-      <c r="A316" t="inlineStr">
-        <is>
-          <t>울산서 광역열차 탄 文 "저도 곧 동남권 돌아올 사람…꿈 같다"</t>
-        </is>
-      </c>
-      <c r="B316" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="317">
-      <c r="A317" t="inlineStr">
-        <is>
-          <t>[경제계 인사]BNK금융지주 外</t>
-        </is>
-      </c>
-      <c r="B317" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="318">
-      <c r="A318" t="inlineStr">
-        <is>
-          <t>BNK경남은행, ‘2022년 상반기 승진·전보인사’ 단행</t>
-        </is>
-      </c>
-      <c r="B318" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:23</t>
-        </is>
-      </c>
-    </row>
-    <row r="319">
-      <c r="A319" t="inlineStr">
-        <is>
-          <t>고교 2학년생 무더기 산업기사 자격증 취득 '화제'</t>
-        </is>
-      </c>
-      <c r="B319" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="320">
-      <c r="A320" t="inlineStr">
-        <is>
-          <t>동해선(부산~울산) 복선전철, 28일 완전개통…전구간 76분 소요</t>
-        </is>
-      </c>
-      <c r="B320" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="321">
-      <c r="A321" t="inlineStr">
-        <is>
-          <t>임실군, 국토부 주관 ‘도시재생 예비사업’ 선정</t>
-        </is>
-      </c>
-      <c r="B321" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="322">
-      <c r="A322" t="inlineStr">
-        <is>
-          <t>용산구, 자매도시 7곳과 베트남 진출 MOU…한류콘텐츠 함께 만든다</t>
-        </is>
-      </c>
-      <c r="B322" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="323">
-      <c r="A323" t="inlineStr">
-        <is>
-          <t>서울대 경영대·현우문화재단, '현우 곽수일 학술상' 제정</t>
-        </is>
-      </c>
-      <c r="B323" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="324">
-      <c r="A324" t="inlineStr">
-        <is>
-          <t>"지방자치법 이렇게 바뀐다"…부안군의회, 역량강화 교육</t>
-        </is>
-      </c>
-      <c r="B324" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="325">
-      <c r="A325" t="inlineStr">
-        <is>
-          <t>아산서 빙판길 교통사고 돕던 외국인 근로자 등 3명 참변(종합)</t>
-        </is>
-      </c>
-      <c r="B325" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="326">
-      <c r="A326" t="inlineStr">
-        <is>
-          <t>[인사] JB금융그룹 전북은행</t>
-        </is>
-      </c>
-      <c r="B326" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="327">
-      <c r="A327" t="inlineStr">
-        <is>
-          <t>"이재명 후보와 함께 젊은 제주 만들 것"</t>
-        </is>
-      </c>
-      <c r="B327" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="328">
-      <c r="A328" t="inlineStr">
-        <is>
-          <t>"연금 70만원으로 생활" 34년째 거인병 은메달리스트, 보조금 1000만원 받는다</t>
-        </is>
-      </c>
-      <c r="B328" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="329">
-      <c r="A329" t="inlineStr">
-        <is>
-          <t>北피격 공무원 가족 “문 대통령 퇴임 전 정보 공개하라”</t>
-        </is>
-      </c>
-      <c r="B329" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="330">
-      <c r="A330" t="inlineStr">
-        <is>
-          <t>'출신학교 차별금지법 제정을…' 입시경쟁·사교육 근절 위한 11가지 공약</t>
-        </is>
-      </c>
-      <c r="B330" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="331">
-      <c r="A331" t="inlineStr">
-        <is>
-          <t>고려대, 제9회 KU혁신포럼 개최</t>
-        </is>
-      </c>
-      <c r="B331" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="332">
-      <c r="A332" t="inlineStr">
-        <is>
-          <t>이준석 "선대위, 인적쇄신 없이 변화 어렵다"</t>
-        </is>
-      </c>
-      <c r="B332" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="333">
-      <c r="A333" t="inlineStr">
-        <is>
-          <t>인권정책기본법 국무회의 통과…인권위 "인권보장 토대"</t>
-        </is>
-      </c>
-      <c r="B333" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="334">
-      <c r="A334" t="inlineStr">
-        <is>
-          <t>[창녕24시] 군민 구강건강 지킴이로 나선 창녕군</t>
-        </is>
-      </c>
-      <c r="B334" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="335">
-      <c r="A335" t="inlineStr">
-        <is>
-          <t>서울고법, 첫 형사 영상재판 진행</t>
-        </is>
-      </c>
-      <c r="B335" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:22</t>
-        </is>
-      </c>
-    </row>
-    <row r="336">
-      <c r="A336" t="inlineStr">
-        <is>
-          <t>울산 동구, 동구문화원·현대예술관 문화예술 진흥 협약</t>
-        </is>
-      </c>
-      <c r="B336" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="337">
-      <c r="A337" t="inlineStr">
-        <is>
-          <t>광주지방법원, 국민참여재판 우수법원으로 선정</t>
-        </is>
-      </c>
-      <c r="B337" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="338">
-      <c r="A338" t="inlineStr">
-        <is>
-          <t>바쁜 코로나 외래진료센터 의료진</t>
-        </is>
-      </c>
-      <c r="B338" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="339">
-      <c r="A339" t="inlineStr">
-        <is>
-          <t>순천서 제1회 한중창업혁신포럼 열려…중관촌과 협력</t>
-        </is>
-      </c>
-      <c r="B339" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="340">
-      <c r="A340" t="inlineStr">
-        <is>
-          <t>경기도 조세정의과, '지방재정 우수사례' 대통령상·장관상 수상</t>
-        </is>
-      </c>
-      <c r="B340" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="341">
-      <c r="A341" t="inlineStr">
-        <is>
-          <t>美 저명한 중국사 전문가 스펜스 교수 별세</t>
-        </is>
-      </c>
-      <c r="B341" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="342">
-      <c r="A342" t="inlineStr">
-        <is>
-          <t>최기주 아주대 제17대 총장</t>
-        </is>
-      </c>
-      <c r="B342" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="343">
-      <c r="A343" t="inlineStr">
-        <is>
-          <t>‘통섭’ 주창한 사회생물학 대가 윌슨 별세</t>
-        </is>
-      </c>
-      <c r="B343" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="344">
-      <c r="A344" t="inlineStr">
-        <is>
-          <t>50년전 공짜로 얻어먹은 홍합 한그릇… “이제라도 빚 갚고싶다”</t>
-        </is>
-      </c>
-      <c r="B344" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="345">
-      <c r="A345" t="inlineStr"/>
-      <c r="B345" t="inlineStr"/>
-    </row>
-    <row r="346">
-      <c r="A346" t="inlineStr">
-        <is>
-          <t>“萬有同一體 태도로 어려움 이겨나가길”</t>
-        </is>
-      </c>
-      <c r="B346" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="347">
-      <c r="A347" t="inlineStr">
-        <is>
-          <t>롯데, 이웃사랑 성금 70억</t>
-        </is>
-      </c>
-      <c r="B347" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="348">
-      <c r="A348" t="inlineStr">
-        <is>
-          <t>‘롯데홈쇼핑 20년사’ 발간</t>
-        </is>
-      </c>
-      <c r="B348" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="349">
-      <c r="A349" t="inlineStr">
-        <is>
-          <t>경북교육청, 내년 후기高 합격 현황 공개</t>
-        </is>
-      </c>
-      <c r="B349" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="350">
-      <c r="A350" t="inlineStr">
-        <is>
-          <t>CJ대한통운 택배 파업</t>
-        </is>
-      </c>
-      <c r="B350" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="351">
-      <c r="A351" t="inlineStr">
-        <is>
-          <t>CJ대한통운 택배 파업</t>
-        </is>
-      </c>
-      <c r="B351" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:21</t>
-        </is>
-      </c>
-    </row>
-    <row r="352">
-      <c r="A352" t="inlineStr">
-        <is>
-          <t>CJ대한통운 택배노조 파업결의대회 참석한 김재연 진보당 대선후보</t>
-        </is>
-      </c>
-      <c r="B352" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="353">
-      <c r="A353" t="inlineStr">
-        <is>
-          <t>CJ대한통운 택배노조 파업 집회 참석한 김재연 진보당 대선후보</t>
-        </is>
-      </c>
-      <c r="B353" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="354">
-      <c r="A354" t="inlineStr">
-        <is>
-          <t>코로나 환자 폐기물 치우는 의료진</t>
-        </is>
-      </c>
-      <c r="B354" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="355">
-      <c r="A355" t="inlineStr">
-        <is>
-          <t>코로나19 환자 병실에서 나오는 폐기물</t>
-        </is>
-      </c>
-      <c r="B355" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="356">
-      <c r="A356" t="inlineStr">
-        <is>
-          <t>코로나19 전담병원으로 향하는 발걸음</t>
-        </is>
-      </c>
-      <c r="B356" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="357">
-      <c r="A357" t="inlineStr">
-        <is>
-          <t>진주 소재 학교 관련 집단감염 7명 추가…누적 65명</t>
-        </is>
-      </c>
-      <c r="B357" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="358">
-      <c r="A358" t="inlineStr">
-        <is>
-          <t>오미크론 확진자·밀접접촉자 격리 14→10일로 줄인다</t>
-        </is>
-      </c>
-      <c r="B358" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="359">
-      <c r="A359" t="inlineStr">
-        <is>
-          <t>&lt;인사&gt; 경찰청</t>
-        </is>
-      </c>
-      <c r="B359" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="360">
-      <c r="A360" t="inlineStr">
-        <is>
-          <t>극지연구소, 남극대륙 K루트 개척</t>
-        </is>
-      </c>
-      <c r="B360" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="361">
-      <c r="A361" t="inlineStr">
-        <is>
-          <t>김문기 유족 “이재명·민주당 조의 없었다, 키우던 개도 죽으면...”</t>
-        </is>
-      </c>
-      <c r="B361" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="362">
-      <c r="A362" t="inlineStr">
-        <is>
-          <t>[단독] ‘삼청교육대 배상’ 소송 단체 대표는 맥아더 동상에 불 지른 사람</t>
-        </is>
-      </c>
-      <c r="B362" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="363">
-      <c r="A363" t="inlineStr">
-        <is>
-          <t>대한전문건설협회 부산시회, 부산교육청에 교육기부금 전달</t>
-        </is>
-      </c>
-      <c r="B363" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="364">
-      <c r="A364" t="inlineStr">
-        <is>
-          <t>CJ대한통운 택배 파업</t>
-        </is>
-      </c>
-      <c r="B364" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:20</t>
-        </is>
-      </c>
-    </row>
-    <row r="365">
-      <c r="A365" t="inlineStr">
-        <is>
-          <t>부산시·BPA·남부발전, 민관합동 코워킹 스페이스 문열었다</t>
-        </is>
-      </c>
-      <c r="B365" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="366">
-      <c r="A366" t="inlineStr">
-        <is>
-          <t>의생명기업 케이엠지, 부산에서 김해로 본사·공장 이전</t>
-        </is>
-      </c>
-      <c r="B366" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="367">
-      <c r="A367" t="inlineStr">
-        <is>
-          <t>강원랜드, 폐광지 작은 식당 살리기 20호점 개점</t>
-        </is>
-      </c>
-      <c r="B367" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="368">
-      <c r="A368" t="inlineStr">
-        <is>
-          <t>71년만에 돌아온 6·25 참전 경찰관 2명 합동 안장식 거행</t>
-        </is>
-      </c>
-      <c r="B368" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="369">
-      <c r="A369" t="inlineStr">
-        <is>
-          <t>인천 공장, 건설 현장서 노동자 잇따라 사망</t>
-        </is>
-      </c>
-      <c r="B369" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="370">
-      <c r="A370" t="inlineStr">
-        <is>
-          <t>'코인 일확천금' 노린 40대 男…"10년 모은 3억 원 날려"</t>
-        </is>
-      </c>
-      <c r="B370" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="371">
-      <c r="A371" t="inlineStr">
-        <is>
-          <t>'코로나 환자 폐기물 처리는 철저히'</t>
-        </is>
-      </c>
-      <c r="B371" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="372">
-      <c r="A372" t="inlineStr">
-        <is>
-          <t>코로나19 위중증 역대 1102명 역대 두번째</t>
-        </is>
-      </c>
-      <c r="B372" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="373">
-      <c r="A373" t="inlineStr">
-        <is>
-          <t>코로나19 위중증 1102명</t>
-        </is>
-      </c>
-      <c r="B373" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="374">
-      <c r="A374" t="inlineStr">
-        <is>
-          <t>코로나19 전담병원 들어가는 환자</t>
-        </is>
-      </c>
-      <c r="B374" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="375">
-      <c r="A375" t="inlineStr">
-        <is>
-          <t>8일째 코로나19 위중증 환자 천명대</t>
-        </is>
-      </c>
-      <c r="B375" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="376">
-      <c r="A376" t="inlineStr">
-        <is>
-          <t>합천군-공무원노조 합천군지부, 2020년 단체협약 체결</t>
-        </is>
-      </c>
-      <c r="B376" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="377">
-      <c r="A377" t="inlineStr">
-        <is>
-          <t>사과하는 진경호 전국택배노동조합 위원장</t>
-        </is>
-      </c>
-      <c r="B377" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="378">
-      <c r="A378" t="inlineStr">
-        <is>
-          <t>거창 항노화 힐링랜드, 관광객 88.5% 서비스 품질 만족</t>
-        </is>
-      </c>
-      <c r="B378" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="379">
-      <c r="A379" t="inlineStr">
-        <is>
-          <t>50년 전 얻어먹은 홍합 한그릇…수표로 갚은 70대 노인</t>
-        </is>
-      </c>
-      <c r="B379" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="380">
-      <c r="A380" t="inlineStr">
-        <is>
-          <t>6·25 전사 경찰관 2명, 71년 만에 현충원 안장</t>
-        </is>
-      </c>
-      <c r="B380" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="381">
-      <c r="A381" t="inlineStr">
-        <is>
-          <t>정읍시, 내년부터 출생아 한 명당 200만 원의 바우처 지급</t>
-        </is>
-      </c>
-      <c r="B381" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:19</t>
-        </is>
-      </c>
-    </row>
-    <row r="382">
-      <c r="A382" t="inlineStr">
-        <is>
-          <t>이송되는 코로나19 환자</t>
-        </is>
-      </c>
-      <c r="B382" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="383">
-      <c r="A383" t="inlineStr">
-        <is>
-          <t>나주시, 종이 수입증지 사용 전면 폐지한다</t>
-        </is>
-      </c>
-      <c r="B383" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="384">
-      <c r="A384" t="inlineStr">
-        <is>
-          <t>이재명 측근 정진상 "검찰 출석 거부 사실 아냐, 일정 조율 중"</t>
-        </is>
-      </c>
-      <c r="B384" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="385">
-      <c r="A385" t="inlineStr">
-        <is>
-          <t>질 높은 급식 위해...경기교육청, 식품비·인건비 분리 지원</t>
-        </is>
-      </c>
-      <c r="B385" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="386">
-      <c r="A386" t="inlineStr">
-        <is>
-          <t>[인사] 전남 강진군</t>
-        </is>
-      </c>
-      <c r="B386" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="387">
-      <c r="A387" t="inlineStr">
-        <is>
-          <t>구(舊) 장흥교도소, 장흥군 문화 복합공간으로 탈바꿈</t>
-        </is>
-      </c>
-      <c r="B387" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="388">
-      <c r="A388" t="inlineStr">
-        <is>
-          <t>[사천소식] 학교 밖 청소년 전용공단 '꿈다락' 문 열어</t>
-        </is>
-      </c>
-      <c r="B388" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="389">
-      <c r="A389" t="inlineStr">
-        <is>
-          <t>광주은행 부행장보 4명 발탁 인사…조직개편</t>
-        </is>
-      </c>
-      <c r="B389" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="390">
-      <c r="A390" t="inlineStr">
-        <is>
-          <t>[팩트체크] 코로나 간호사들, 정규직 사표 내고 파견직으로 간다?</t>
-        </is>
-      </c>
-      <c r="B390" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="391">
-      <c r="A391" t="inlineStr">
-        <is>
-          <t>공주대, '세종캠퍼스 학교사랑 1평 갖기' 발전기금 기탁식</t>
-        </is>
-      </c>
-      <c r="B391" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="392">
-      <c r="A392" t="inlineStr">
-        <is>
-          <t>6·25 전사 경찰관 2명, 71년 만에 현충원 안장</t>
-        </is>
-      </c>
-      <c r="B392" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="393">
-      <c r="A393" t="inlineStr">
-        <is>
-          <t>북녘에 ‘전북 낙농단지-종자단지’ 조성 … 남북협력 사전승인</t>
-        </is>
-      </c>
-      <c r="B393" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="394">
-      <c r="A394" t="inlineStr">
-        <is>
-          <t>인천항만공사, 한국농수산식품유통공사와 독거노인 1000명에 도시락 전달</t>
-        </is>
-      </c>
-      <c r="B394" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="395">
-      <c r="A395" t="inlineStr">
-        <is>
-          <t>CJ대한통운 택배 파업</t>
-        </is>
-      </c>
-      <c r="B395" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="396">
-      <c r="A396" t="inlineStr">
-        <is>
-          <t>CJ대한통운 택배 파업</t>
-        </is>
-      </c>
-      <c r="B396" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:18</t>
-        </is>
-      </c>
-    </row>
-    <row r="397">
-      <c r="A397" t="inlineStr">
-        <is>
-          <t>광주시, 내년 교육경비 보조금 지원 182억원 투입</t>
-        </is>
-      </c>
-      <c r="B397" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="398">
-      <c r="A398" t="inlineStr">
-        <is>
-          <t>남원시 시민안전보험, 코로나19 등 감염병 확대 적용</t>
-        </is>
-      </c>
-      <c r="B398" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="399">
-      <c r="A399" t="inlineStr">
-        <is>
-          <t>“확진자 동선과 겹치나 확인”…방역당국, 자가입력 앱 검토 중</t>
-        </is>
-      </c>
-      <c r="B399" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="400">
-      <c r="A400" t="inlineStr">
-        <is>
-          <t>세종시 국토부 앞 파업결의대회 갖는 CJ대한통운 택배노조</t>
-        </is>
-      </c>
-      <c r="B400" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="401">
-      <c r="A401" t="inlineStr">
-        <is>
-          <t>고준위방사성 폐기물 관리…이재명 "뾰족한 수 없어…떠안고 살아야"</t>
-        </is>
-      </c>
-      <c r="B401" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="402">
-      <c r="A402" t="inlineStr">
-        <is>
-          <t>CJ대한통운 택배노조 '무기한 파업 결의대회'</t>
-        </is>
-      </c>
-      <c r="B402" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="403">
-      <c r="A403" t="inlineStr">
-        <is>
-          <t>박형준 3차 공판 비공개 진행…국정원 직원 증인 출석</t>
-        </is>
-      </c>
-      <c r="B403" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="404">
-      <c r="A404" t="inlineStr">
-        <is>
-          <t>CJ대한통운 택배 파업</t>
-        </is>
-      </c>
-      <c r="B404" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="405">
-      <c r="A405" t="inlineStr">
-        <is>
-          <t>멈춰있는 컨베이어벨트</t>
-        </is>
-      </c>
-      <c r="B405" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:17</t>
-        </is>
-      </c>
-    </row>
-    <row r="406">
-      <c r="A406" t="inlineStr">
-        <is>
-          <t>CJ대한통운 택배노조 '무기한 파업 결의'</t>
-        </is>
-      </c>
-      <c r="B406" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="407">
-      <c r="A407" t="inlineStr">
-        <is>
-          <t>창원시, 여성·청소년용 공영자전거 선보여…휠 줄여 높이 낮춰</t>
-        </is>
-      </c>
-      <c r="B407" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="408">
-      <c r="A408" t="inlineStr">
-        <is>
-          <t>완도군, 기초생활보장 우수 지자체 ‘선정’</t>
-        </is>
-      </c>
-      <c r="B408" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="409">
-      <c r="A409" t="inlineStr">
-        <is>
-          <t>'화이자 알약' 못먹는 코로나 환자는?…"대체제 검토 중"</t>
-        </is>
-      </c>
-      <c r="B409" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="410">
-      <c r="A410" t="inlineStr">
-        <is>
-          <t>구호외치는 CJ대한통운 택배노조</t>
-        </is>
-      </c>
-      <c r="B410" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="411">
-      <c r="A411" t="inlineStr">
-        <is>
-          <t>구호 외치는 CJ대한통운 택배노조</t>
-        </is>
-      </c>
-      <c r="B411" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="412">
-      <c r="A412" t="inlineStr">
-        <is>
-          <t>CJ대한통운 택배노조 '표준계약서 상 과로 유발 조항 철회 촉구'</t>
-        </is>
-      </c>
-      <c r="B412" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="413">
-      <c r="A413" t="inlineStr">
-        <is>
-          <t>CJ대한통운 택배노조 '표준계약서 과로유발, 택배요금 이익금 배분 개선'</t>
-        </is>
-      </c>
-      <c r="B413" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="414">
-      <c r="A414" t="inlineStr">
-        <is>
-          <t>CJ대한통운 택배노조 '무기한 파업'</t>
-        </is>
-      </c>
-      <c r="B414" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="415">
-      <c r="A415" t="inlineStr">
-        <is>
-          <t>대전시 지역화폐 '온통대전' 내년 2조 원 발행</t>
-        </is>
-      </c>
-      <c r="B415" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="416">
-      <c r="A416" t="inlineStr">
-        <is>
-          <t>인사말하는 조형곤 상임대표</t>
-        </is>
-      </c>
-      <c r="B416" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="417">
-      <c r="A417" t="inlineStr">
-        <is>
-          <t>축사하는 장기표 전 국민의힘 대선 경선 후보</t>
-        </is>
-      </c>
-      <c r="B417" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="418">
-      <c r="A418" t="inlineStr">
-        <is>
-          <t>서울정상화 시민협의체 출범식</t>
-        </is>
-      </c>
-      <c r="B418" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="419">
-      <c r="A419" t="inlineStr">
-        <is>
-          <t>진만성 서울정상화시민협의체 상임대표</t>
-        </is>
-      </c>
-      <c r="B419" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="420">
-      <c r="A420" t="inlineStr">
-        <is>
-          <t>서울정상화시민협의체 출범</t>
-        </is>
-      </c>
-      <c r="B420" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="421">
-      <c r="A421" t="inlineStr">
-        <is>
-          <t>서울정상화시민협의체 출범</t>
-        </is>
-      </c>
-      <c r="B421" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="422">
-      <c r="A422" t="inlineStr">
-        <is>
-          <t>축사하는 윤창현 의원</t>
-        </is>
-      </c>
-      <c r="B422" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="423">
-      <c r="A423" t="inlineStr">
-        <is>
-          <t>인사말하는 이종배 상임대표</t>
-        </is>
-      </c>
-      <c r="B423" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="424">
-      <c r="A424" t="inlineStr">
-        <is>
-          <t>CJ대한통운 택배노조 '총파업 결의대회'</t>
-        </is>
-      </c>
-      <c r="B424" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="425">
-      <c r="A425" t="inlineStr">
-        <is>
-          <t>택배요금 인상분 배분 개선 촉구하는 CJ대한통운 택배노조</t>
-        </is>
-      </c>
-      <c r="B425" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="426">
-      <c r="A426" t="inlineStr">
-        <is>
-          <t>'표준계약서 과로 유발 조항 삭제하라!'</t>
-        </is>
-      </c>
-      <c r="B426" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="427">
-      <c r="A427" t="inlineStr">
-        <is>
-          <t>시흥시 "2710세대 공급 '월곶역세권 도시개발사업' 본격 추진"</t>
-        </is>
-      </c>
-      <c r="B427" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="428">
-      <c r="A428" t="inlineStr">
-        <is>
-          <t>마산대 강도명 처장·이혜미 팀장, 교육부장관 표창 수상</t>
-        </is>
-      </c>
-      <c r="B428" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="429">
-      <c r="A429" t="inlineStr">
-        <is>
-          <t>구호 외치는 CJ대한통운 택배노조</t>
-        </is>
-      </c>
-      <c r="B429" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="430">
-      <c r="A430" t="inlineStr">
-        <is>
-          <t>GS칼텍스, 여수지역 홀몸 어르신 가정에 떡국 나눔</t>
-        </is>
-      </c>
-      <c r="B430" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="431">
-      <c r="A431" t="inlineStr">
-        <is>
-          <t>‘갑론을박’ 지역화폐 하나로마트 사용…농협·제주도 각각 영향분석 연구 발주</t>
-        </is>
-      </c>
-      <c r="B431" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="432">
-      <c r="A432" t="inlineStr">
-        <is>
-          <t>‘형제복지원’ 피해자, 30명 국가 상대 소송... “진정한 사과 원해”</t>
-        </is>
-      </c>
-      <c r="B432" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="433">
-      <c r="A433" t="inlineStr">
-        <is>
-          <t>구미 금오공대 정현재 학생, '2021 대한민국 인재상' 수상</t>
-        </is>
-      </c>
-      <c r="B433" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="434">
-      <c r="A434" t="inlineStr">
-        <is>
-          <t>권순태 안동대 총장 국가중심국공립대학교 총장협의회장 선출</t>
-        </is>
-      </c>
-      <c r="B434" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="435">
-      <c r="A435" t="inlineStr">
-        <is>
-          <t>CJ대한통운 택배 파업</t>
-        </is>
-      </c>
-      <c r="B435" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="436">
-      <c r="A436" t="inlineStr">
-        <is>
-          <t>MRI 촬영 중 날아온 산소통에 60대 사망…경찰 “병원 과실”</t>
-        </is>
-      </c>
-      <c r="B436" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:16</t>
-        </is>
-      </c>
-    </row>
-    <row r="437">
-      <c r="A437" t="inlineStr">
-        <is>
-          <t>파업 결의대회 갖는 CJ대한통운 노조 조합원들</t>
-        </is>
-      </c>
-      <c r="B437" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="438">
-      <c r="A438" t="inlineStr">
-        <is>
-          <t>국토부 앞 파업 집회 갖는 CJ대한통운 노조</t>
-        </is>
-      </c>
-      <c r="B438" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="439">
-      <c r="A439" t="inlineStr">
-        <is>
-          <t>[인사]경찰청</t>
-        </is>
-      </c>
-      <c r="B439" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="440">
-      <c r="A440" t="inlineStr">
-        <is>
-          <t>[포토]전국택배노조, '총파업 결의'</t>
-        </is>
-      </c>
-      <c r="B440" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="441">
-      <c r="A441" t="inlineStr">
-        <is>
-          <t>[포토]전국택배노조, '총파업 결의대회 투쟁!'</t>
-        </is>
-      </c>
-      <c r="B441" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="442">
-      <c r="A442" t="inlineStr">
-        <is>
-          <t>[포토]CJ대한통운 노조, "사회적 합의 이행하라"</t>
-        </is>
-      </c>
-      <c r="B442" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="443">
-      <c r="A443" t="inlineStr">
-        <is>
-          <t>[포토]투쟁 머리띠 두른 CJ대한통운 택배기사들</t>
-        </is>
-      </c>
-      <c r="B443" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="444">
-      <c r="A444" t="inlineStr">
-        <is>
-          <t>[포토]CJ대한통운 택배노조 1700명, 무기한 총파업 돌입</t>
-        </is>
-      </c>
-      <c r="B444" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="445">
-      <c r="A445" t="inlineStr">
-        <is>
-          <t>[포토]출정식에서 구호 외치는 CJ대한통운 택배기사들</t>
-        </is>
-      </c>
-      <c r="B445" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="446">
-      <c r="A446" t="inlineStr">
-        <is>
-          <t>[포토]구호 외치는 CJ대한통운 택배기사들</t>
-        </is>
-      </c>
-      <c r="B446" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="447">
-      <c r="A447" t="inlineStr">
-        <is>
-          <t>인천국제공항공사, 희망나눔 성금 10억 기부</t>
-        </is>
-      </c>
-      <c r="B447" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="448">
-      <c r="A448" t="inlineStr">
-        <is>
-          <t>편의점에 차량 돌진..."사이드 브레이크 풀려"</t>
-        </is>
-      </c>
-      <c r="B448" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="449">
-      <c r="A449" t="inlineStr">
-        <is>
-          <t>전북도, 임산부에 친환경농산물 선물</t>
-        </is>
-      </c>
-      <c r="B449" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="450">
-      <c r="A450" t="inlineStr">
-        <is>
-          <t>[포토]구호 외치는 택배기사들</t>
-        </is>
-      </c>
-      <c r="B450" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="451">
-      <c r="A451" t="inlineStr">
-        <is>
-          <t>[포토]택배기사노조, 탐욕의 질주를 막아내자!</t>
-        </is>
-      </c>
-      <c r="B451" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="452">
-      <c r="A452" t="inlineStr">
-        <is>
-          <t>CJ대한통운 택배 파업, 노조원과 비노조원</t>
-        </is>
-      </c>
-      <c r="B452" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="453">
-      <c r="A453" t="inlineStr">
-        <is>
-          <t>의류수거함에 아이 유기 20대 친모, 다른 두 아들도 학대·방임</t>
-        </is>
-      </c>
-      <c r="B453" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="454">
-      <c r="A454" t="inlineStr">
-        <is>
-          <t>"내년부터 대학원생·전문기술석사도 취업 후 상환 학자금 대출 가능"</t>
-        </is>
-      </c>
-      <c r="B454" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:15</t>
-        </is>
-      </c>
-    </row>
-    <row r="455">
-      <c r="A455" t="inlineStr">
-        <is>
-          <t>"중2 딸, 접종 후 '풍'…예약한 내 손 자르고 싶어" 울분의 靑 청원</t>
-        </is>
-      </c>
-      <c r="B455" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="456">
-      <c r="A456" t="inlineStr">
-        <is>
-          <t>전북, 10개 시군서 102명 확진…오미크론 누적 109명↑</t>
-        </is>
-      </c>
-      <c r="B456" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="457">
-      <c r="A457" t="inlineStr">
-        <is>
-          <t>손이 시려워요</t>
-        </is>
-      </c>
-      <c r="B457" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="458">
-      <c r="A458" t="inlineStr">
-        <is>
-          <t>창원대학교 , 30일부터 2022학년도 정시모집 원서 접수</t>
-        </is>
-      </c>
-      <c r="B458" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="459">
-      <c r="A459" t="inlineStr">
-        <is>
-          <t>난로에 의지하며</t>
-        </is>
-      </c>
-      <c r="B459" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="460">
-      <c r="A460" t="inlineStr">
-        <is>
-          <t>의령 ㈜화림테크 김욱춘 대표, 성금 1000만원 기탁</t>
-        </is>
-      </c>
-      <c r="B460" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="461">
-      <c r="A461" t="inlineStr">
-        <is>
-          <t>오미크론 밀접접촉자 격리 '14→10일' 단축</t>
-        </is>
-      </c>
-      <c r="B461" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="462">
-      <c r="A462" t="inlineStr">
-        <is>
-          <t>여수시, 양지고가교 철거…7개월간 차로 축소 운영</t>
-        </is>
-      </c>
-      <c r="B462" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="463">
-      <c r="A463" t="inlineStr">
-        <is>
-          <t>[포토]CJ대한통운 택배기사노조, 탐욕의 질주를 막아내자!</t>
-        </is>
-      </c>
-      <c r="B463" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="464">
-      <c r="A464" t="inlineStr">
-        <is>
-          <t>시비거는 취객 밀쳐 숨지게 한 30대…항소심서 감형</t>
-        </is>
-      </c>
-      <c r="B464" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:14</t>
-        </is>
-      </c>
-    </row>
-    <row r="465">
-      <c r="A465" t="inlineStr">
-        <is>
-          <t>옛 농협창고가 청소년 예술공간으로…순창 순화문화창고 개관</t>
-        </is>
-      </c>
-      <c r="B465" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="466">
-      <c r="A466" t="inlineStr">
-        <is>
-          <t>먹을 것 안 줬다고…60대 어머니 때려 숨지게 한 아들</t>
-        </is>
-      </c>
-      <c r="B466" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="467">
-      <c r="A467" t="inlineStr">
-        <is>
-          <t>탄소중립으로 아낀 에너지 절감액으로 이웃 돕는 김해시민</t>
-        </is>
-      </c>
-      <c r="B467" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="468">
-      <c r="A468" t="inlineStr">
-        <is>
-          <t>농협, 계약재배 51명에 채소가격안정제 등 15억6천만 원 지원</t>
-        </is>
-      </c>
-      <c r="B468" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="469">
-      <c r="A469" t="inlineStr">
-        <is>
-          <t>50년전 신촌서 얻어먹은 홍합 한 그릇…노인은 2000달러로 갚았다</t>
-        </is>
-      </c>
-      <c r="B469" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="470">
-      <c r="A470" t="inlineStr">
-        <is>
-          <t>GS칼텍스, 강추위 속 '따뜻한 떡국 나눔'</t>
-        </is>
-      </c>
-      <c r="B470" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="471">
-      <c r="A471" t="inlineStr">
-        <is>
-          <t>MRI 찍다가 산소통에 눌려 숨진 환자…경찰 "의료사고 맞다"</t>
-        </is>
-      </c>
-      <c r="B471" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="472">
-      <c r="A472" t="inlineStr">
-        <is>
-          <t>강용석 "이준석, 제발 빨리 우릴 고소해 달라…정계은퇴 걸고"</t>
-        </is>
-      </c>
-      <c r="B472" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:13</t>
-        </is>
-      </c>
-    </row>
-    <row r="473">
-      <c r="A473" t="inlineStr">
-        <is>
-          <t>“운전경력 증명서 제출하라” 전주시설공단, 음주운전 근절 총력</t>
-        </is>
-      </c>
-      <c r="B473" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="474">
-      <c r="A474" t="inlineStr">
-        <is>
-          <t>경무관급 48명 전보 인사…자치경찰협력정책관 손장목</t>
-        </is>
-      </c>
-      <c r="B474" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="475">
-      <c r="A475" t="inlineStr">
-        <is>
-          <t>오미크론 감염 4명 늘어 449명…강원서 가족간 n차감염 의심(종합)</t>
-        </is>
-      </c>
-      <c r="B475" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="476">
-      <c r="A476" t="inlineStr">
-        <is>
-          <t>포항대, 전문대학 기관평가인증 ‘전분야 충족’ 판정</t>
-        </is>
-      </c>
-      <c r="B476" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="477">
-      <c r="A477" t="inlineStr">
-        <is>
-          <t>대장동 준공 승인 내년 3월로 연기…성남시 “부분 승인 검토”</t>
-        </is>
-      </c>
-      <c r="B477" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="478">
-      <c r="A478" t="inlineStr">
-        <is>
-          <t>정부, 노후건축물 등 2만 3천여 시설 점검…“33% 위험요인 발견”</t>
-        </is>
-      </c>
-      <c r="B478" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="479">
-      <c r="A479" t="inlineStr">
-        <is>
-          <t>여수시, 26년간 기능 다하고 철거되는 양지고가교</t>
-        </is>
-      </c>
-      <c r="B479" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="480">
-      <c r="A480" t="inlineStr">
-        <is>
-          <t>대구 설화명곡역 비대면 스마트 도서관 운영…청라언덕·대구역도 추가 개관</t>
-        </is>
-      </c>
-      <c r="B480" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="481">
-      <c r="A481" t="inlineStr">
-        <is>
-          <t>[포토]CJ대한통운 택배기사 노조, 오늘부터 총파업…배송차질 불가피</t>
-        </is>
-      </c>
-      <c r="B481" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="482">
-      <c r="A482" t="inlineStr">
-        <is>
-          <t>30년간 조국 해양 수호한 해군 함정 8척 전역</t>
-        </is>
-      </c>
-      <c r="B482" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:12</t>
-        </is>
-      </c>
-    </row>
-    <row r="483">
-      <c r="A483" t="inlineStr">
-        <is>
-          <t>"영산강 수질악화는 광주 제1하수처리장 방류수 탓"</t>
-        </is>
-      </c>
-      <c r="B483" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="484">
-      <c r="A484" t="inlineStr">
-        <is>
-          <t>12~17세 1차 접종률 71.1%…1주일만에 10% 수직상승</t>
-        </is>
-      </c>
-      <c r="B484" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="485">
-      <c r="A485" t="inlineStr">
-        <is>
-          <t>동아대병원, 내년 1월부터 극희귀질환 환자 치료 가능해진다</t>
-        </is>
-      </c>
-      <c r="B485" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="486">
-      <c r="A486" t="inlineStr">
-        <is>
-          <t>[인사]건설공제조합</t>
-        </is>
-      </c>
-      <c r="B486" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="487">
-      <c r="A487" t="inlineStr">
-        <is>
-          <t>화이자 먹는 치료제 1차 2만명분 도입…충분할까</t>
-        </is>
-      </c>
-      <c r="B487" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="488">
-      <c r="A488" t="inlineStr">
-        <is>
-          <t>박남춘 인천시장, 소상공인연합회 '2021 목민상' 수상</t>
-        </is>
-      </c>
-      <c r="B488" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="489">
-      <c r="A489" t="inlineStr">
-        <is>
-          <t>[포토]CJ대한통운 오늘부터 총파업…배송차질 불가피</t>
-        </is>
-      </c>
-      <c r="B489" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="490">
-      <c r="A490" t="inlineStr">
-        <is>
-          <t>[포토]택배기사 총파업으로 배송되지 못하는 택배상자들</t>
-        </is>
-      </c>
-      <c r="B490" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="491">
-      <c r="A491" t="inlineStr">
-        <is>
-          <t>헌재 “표준지 기준으로 공시지가 산정하는 부동산공시법 합헌”</t>
-        </is>
-      </c>
-      <c r="B491" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="492">
-      <c r="A492" t="inlineStr">
-        <is>
-          <t>[포토]가득 쌓인 택배상자 앞 지나가는 파업 택배노조원</t>
-        </is>
-      </c>
-      <c r="B492" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="493">
-      <c r="A493" t="inlineStr">
-        <is>
-          <t>&lt;인사&gt; HK콜마</t>
-        </is>
-      </c>
-      <c r="B493" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
-        </is>
-      </c>
-    </row>
-    <row r="494">
-      <c r="A494" t="inlineStr">
-        <is>
-          <t>"올림픽 이후 거인병" 고백…김영희, 보조금 1000만원 받는다</t>
-        </is>
-      </c>
-      <c r="B494" t="inlineStr">
-        <is>
-          <t>2021.12.28 15:11</t>
+          <t>2021.12.29 16:59</t>
         </is>
       </c>
     </row>
